--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28503</t>
+          <t>29633</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -450,17 +450,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10407</t>
+          <t>5815</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>3274</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13906</t>
+          <t>10991</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>3109</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>40202</t>
+          <t>50587</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>3749</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3570</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3461</t>
+          <t>3481</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3448</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3366</t>
+          <t>3434</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3309</t>
+          <t>945</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>3511</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3555</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3398</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3352</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>3350</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>4543</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3320</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3318</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>3314</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5603</t>
+          <t>4801</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6082</t>
+          <t>4894</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>3307</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6086</t>
+          <t>5907</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>3271</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6179</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>3270</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6899</t>
+          <t>6422</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>3254</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7265</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t>3223</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>7412</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3218</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7137</t>
+          <t>7456</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3214</t>
+          <t>3216</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7441</t>
+          <t>7472</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>3216</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7527</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>3214</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7612</t>
+          <t>7741</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3197</t>
+          <t>3206</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>7936</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3192</t>
+          <t>3199</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8658</t>
+          <t>8201</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>3192</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8884</t>
+          <t>9130</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>3164</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9208</t>
+          <t>9353</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3157</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9526</t>
+          <t>9616</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>3150</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9629</t>
+          <t>10050</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>3136</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9668</t>
+          <t>10171</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3132</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10347</t>
+          <t>10219</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3131</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10860</t>
+          <t>10429</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>3124</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12711</t>
+          <t>10928</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>3110</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12796</t>
+          <t>11470</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>3096</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15036</t>
+          <t>12169</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>13431</t>
+          <t>13477</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>3048</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18203</t>
+          <t>19231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>24516</t>
+          <t>25713</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1557,17 +1557,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>26420</t>
+          <t>29325</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2795</t>
+          <t>2771</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>29766</t>
+          <t>30972</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>2748</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>41787</t>
+          <t>42699</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>40442</t>
+          <t>43211</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2580</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>50633</t>
+          <t>51273</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>52008</t>
+          <t>52562</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18752</t>
+          <t>11226</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2924</t>
+          <t>3102</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>15590</t>
+          <t>16513</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4632</t>
+          <t>4879</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9282</t>
+          <t>9802</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1827,17 +1827,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10798</t>
+          <t>11427</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>3097</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11189</t>
+          <t>11631</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>3093</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11117</t>
+          <t>11831</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>3088</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>16250</t>
+          <t>17183</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17845</t>
+          <t>19181</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>2936</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19175</t>
+          <t>19808</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>2923</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>26493</t>
+          <t>28207</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>2787</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10379</t>
+          <t>10123</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>3134</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>11470</t>
+          <t>7134</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>3227</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>12092</t>
+          <t>10961</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>3109</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13318</t>
+          <t>12104</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>3081</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>14775</t>
+          <t>12723</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>3066</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>16382</t>
+          <t>13685</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>17650</t>
+          <t>14058</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2946</t>
+          <t>3035</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>18478</t>
+          <t>15895</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>2996</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>21167</t>
+          <t>17329</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2970</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21673</t>
+          <t>19485</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2872</t>
+          <t>2929</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>24539</t>
+          <t>22857</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>2872</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>28080</t>
+          <t>25459</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2829</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>34404</t>
+          <t>35988</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>2675</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35334</t>
+          <t>36596</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>40329</t>
+          <t>41885</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>2596</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>40793</t>
+          <t>42808</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2598</t>
+          <t>2585</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>43937</t>
+          <t>44030</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>46392</t>
+          <t>43157</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2581</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46656</t>
+          <t>47457</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>49429</t>
+          <t>50148</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>80684</t>
+          <t>80971</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>14176</t>
+          <t>12439</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3073</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>37534</t>
+          <t>37766</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2651</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52264</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>4872</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>9467</t>
+          <t>9988</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>13661</t>
+          <t>14704</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2792,14 +2792,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>3020</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>14984</t>
+          <t>15038</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>3013</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>23382</t>
+          <t>21438</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>2895</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>26636</t>
+          <t>23518</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>2861</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>27546</t>
+          <t>24599</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>2844</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>29390</t>
+          <t>27878</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>2792</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>31202</t>
+          <t>29262</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>2772</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>34537</t>
+          <t>31037</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>2747</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>22216</t>
+          <t>29375</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>2770</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>35247</t>
+          <t>32302</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>2729</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>35814</t>
+          <t>33871</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>2705</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>38706</t>
+          <t>34216</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>2700</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>39491</t>
+          <t>36502</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2668</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>40417</t>
+          <t>36812</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2664</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>40912</t>
+          <t>40755</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>2610</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>42118</t>
+          <t>43216</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>2580</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>43636</t>
+          <t>44041</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>46224</t>
+          <t>44505</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>2566</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>52729</t>
+          <t>52820</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>53543</t>
+          <t>53223</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>53949</t>
+          <t>55313</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2487</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>56146</t>
+          <t>55930</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>56570</t>
+          <t>56429</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2480</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>57172</t>
+          <t>56443</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2480</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>57350</t>
+          <t>56857</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2478</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>57931</t>
+          <t>58135</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3474,17 +3474,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>59436</t>
+          <t>60090</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,14 +3494,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>2459</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>73536</t>
+          <t>73379</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2053</t>
+          <t>2061</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>49424</t>
+          <t>50814</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2509</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>37030</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>54578</t>
+          <t>54996</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>58778</t>
+          <t>58936</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3852,7 +3852,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>72150</t>
+          <t>73015</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2073</t>
+          <t>2066</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>72836</t>
+          <t>73301</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>83071</t>
+          <t>84183</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1983</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>100427</t>
+          <t>101078</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>98606</t>
+          <t>99281</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3987,7 +3987,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>103023</t>
+          <t>103588</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4014,7 +4014,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>111517</t>
+          <t>112415</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1368</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>113086</t>
+          <t>113858</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>12199</t>
+          <t>13466</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3062</t>
+          <t>3048</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>40222</t>
+          <t>36423</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4277,14 +4277,14 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2669</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>50500</t>
+          <t>53449</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>2496</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29633</t>
+          <t>24112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>2999</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>5381</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3341</t>
+          <t>3571</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5815</t>
+          <t>9490</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3274</t>
+          <t>3398</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10991</t>
+          <t>10404</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>3368</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>50587</t>
+          <t>39345</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2723</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>960</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3749</t>
+          <t>3864</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>3811</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>3800</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>3750</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3729</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>2413</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>3724</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,51 +713,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>33656016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>㊥☆梅海听雪☆</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>总馆</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>3688</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>43800641</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>㊥蛋蛋大</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>总馆</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3352</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3749</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3650</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4543</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3649</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>3623</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3623</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4801</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3621</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4894</t>
+          <t>4795</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>3597</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5907</t>
+          <t>4995</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>3587</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>5042</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>3585</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6422</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>3564</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7265</t>
+          <t>5542</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>3562</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>6094</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t>3537</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7456</t>
+          <t>6378</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3524</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7472</t>
+          <t>6397</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3523</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7517</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3214</t>
+          <t>3520</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7741</t>
+          <t>5894</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>3545</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7936</t>
+          <t>6949</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>3500</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8201</t>
+          <t>7444</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3192</t>
+          <t>3481</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9130</t>
+          <t>7551</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9353</t>
+          <t>7559</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>3476</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9616</t>
+          <t>7632</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3473</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10050</t>
+          <t>7840</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>3464</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10171</t>
+          <t>8064</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>3455</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10219</t>
+          <t>8415</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3439</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10429</t>
+          <t>8576</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3124</t>
+          <t>3433</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10928</t>
+          <t>10057</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3379</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11470</t>
+          <t>11791</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>3318</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12169</t>
+          <t>12340</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3301</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>13477</t>
+          <t>13980</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>3251</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>19231</t>
+          <t>20600</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>25713</t>
+          <t>20915</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>3073</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>29325</t>
+          <t>30113</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30972</t>
+          <t>32915</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2833</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>42699</t>
+          <t>48387</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1638,17 +1638,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>43211</t>
+          <t>55864</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Cool dude"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>2506</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>51273</t>
+          <t>56823</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,51 +1685,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>52562</t>
+          <t>21093</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3068</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11226</t>
+          <t>18550</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3128</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>16513</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>3609</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>7138</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>3492</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9802</t>
+          <t>8939</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>3420</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>11427</t>
+          <t>10888</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3097</t>
+          <t>3351</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11631</t>
+          <t>11439</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>3331</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11831</t>
+          <t>11916</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>3314</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>17183</t>
+          <t>18086</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>3139</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19181</t>
+          <t>18349</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>3133</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19808</t>
+          <t>27018</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>2942</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>28207</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2787</t>
+          <t>3918</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10123</t>
+          <t>6691</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3134</t>
+          <t>3510</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7134</t>
+          <t>10607</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3227</t>
+          <t>3360</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10961</t>
+          <t>11137</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>3341</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12104</t>
+          <t>11853</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>3316</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12723</t>
+          <t>12307</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>3302</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>13685</t>
+          <t>15280</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3211</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>14058</t>
+          <t>17308</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>3159</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>15895</t>
+          <t>19533</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>3103</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17329</t>
+          <t>20321</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19485</t>
+          <t>24121</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>2998</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>22857</t>
+          <t>25752</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2872</t>
+          <t>2968</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>25459</t>
+          <t>28485</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2829</t>
+          <t>2913</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>35988</t>
+          <t>31239</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>2864</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>36596</t>
+          <t>32533</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>2839</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>41885</t>
+          <t>36174</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>53854103</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Samir</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2777</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>42808</t>
+          <t>43057</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>53854103</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Samir</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>2665</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>44030</t>
+          <t>45410</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2629</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>43157</t>
+          <t>45666</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>47457</t>
+          <t>48301</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2588</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>50148</t>
+          <t>49577</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>80971</t>
+          <t>54880</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55012</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2513</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>81497</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,14 +2630,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>12439</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>3455</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>37766</t>
+          <t>32710</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>2836</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>52264</t>
+          <t>45848</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2622</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4872</t>
+          <t>9724</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>3390</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>9988</t>
+          <t>13330</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,14 +2765,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>3272</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>14704</t>
+          <t>15042</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>3219</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>15038</t>
+          <t>23129</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3020</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21438</t>
+          <t>23679</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>3008</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>23518</t>
+          <t>23720</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>3007</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>24599</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>2863</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>27878</t>
+          <t>30898</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>2869</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>29262</t>
+          <t>31618</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>2857</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>31037</t>
+          <t>31735</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>2854</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>29375</t>
+          <t>32004</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>2849</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>32302</t>
+          <t>32656</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>2837</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>33871</t>
+          <t>33195</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2705</t>
+          <t>2828</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>34216</t>
+          <t>37360</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2757</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>36502</t>
+          <t>38169</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2743</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>36812</t>
+          <t>39334</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>2723</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>40755</t>
+          <t>39447</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2721</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>43216</t>
+          <t>40480</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>2704</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>44041</t>
+          <t>44487</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2643</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>44505</t>
+          <t>47766</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>2595</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>52820</t>
+          <t>50406</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2561</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>53223</t>
+          <t>50451</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2560</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>55313</t>
+          <t>52060</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>2542</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>55930</t>
+          <t>55845</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2506</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>56429</t>
+          <t>57085</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>56443</t>
+          <t>57228</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>56857</t>
+          <t>60863</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2470</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>58135</t>
+          <t>61167</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2467</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>60090</t>
+          <t>63691</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>2443</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>73379</t>
+          <t>64296</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>2436</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>78789</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>56689806</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>无铅皮蛋QAQ</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2046</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>85738</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8263904</t>
+          <t>56689806</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Cjhao Cjhao"</t>
+          <t>无铅皮蛋QAQ</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8481950</t>
+          <t>8263904</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Natig Seferov"</t>
+          <t>"Cjhao Cjhao"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>8481950</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"Natig Seferov"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3663,44 +3663,44 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59495</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2481</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>50814</t>
+          <t>34642</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2509</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>53112</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3771,17 +3771,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>45347</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2630</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>54996</t>
+          <t>61764</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2462</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>58936</t>
+          <t>74694</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2110</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>73015</t>
+          <t>79165</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>2042</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>73301</t>
+          <t>89092</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>84183</t>
+          <t>107323</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>101078</t>
+          <t>105578</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3960,17 +3960,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>99281</t>
+          <t>109619</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>103588</t>
+          <t>115983</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>112415</t>
+          <t>118982</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1384</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>113858</t>
+          <t>121185</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>1338</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4203,17 +4203,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>11632</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3323</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>13466</t>
+          <t>23882</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>3003</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>36423</t>
+          <t>46525</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2613</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>53449</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4384,33 +4384,6 @@
         </is>
       </c>
       <c r="E149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24112</t>
+          <t>26601</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>3201</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5381</t>
+          <t>6381</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3571</t>
+          <t>4008</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9490</t>
+          <t>10096</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>3801</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10404</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3368</t>
+          <t>4767</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>39345</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>4241</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>4188</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>5375</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>4076</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>5494</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>4068</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>4063</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>4045</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3724</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>7388</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3948</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>12647</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>3682</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3781</t>
+          <t>13037</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>3665</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>45217</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3649</t>
+          <t>2763</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>49005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3623</t>
+          <t>2684</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4260</t>
+          <t>61378</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,527 +848,527 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3623</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>20919</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3377</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>19253</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>3432</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4995</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>4093</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5042</t>
+          <t>6393</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>6682</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5542</t>
+          <t>8769</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3562</t>
+          <t>3868</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6094</t>
+          <t>11266</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>3743</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6378</t>
+          <t>14884</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>3585</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6397</t>
+          <t>17442</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>3493</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>19873</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3409</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5894</t>
+          <t>33732</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3545</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6949</t>
+          <t>799</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>4525</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7444</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>4421</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7551</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>4446</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7559</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>4385</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7632</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>4206</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7840</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3464</t>
+          <t>4119</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8064</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>4048</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8415</t>
+          <t>8305</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>3894</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8576</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1383,326 +1383,326 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3433</t>
+          <t>3872</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10057</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3379</t>
+          <t>3853</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11791</t>
+          <t>9775</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>3815</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12340</t>
+          <t>9701</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>3819</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>13980</t>
+          <t>10316</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>3790</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20600</t>
+          <t>10469</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3781</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20915</t>
+          <t>12063</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>3709</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30113</t>
+          <t>14088</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>3617</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32915</t>
+          <t>14177</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>3613</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>48387</t>
+          <t>14833</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>3587</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>55864</t>
+          <t>15950</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>3547</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>56823</t>
+          <t>16128</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3540</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>21093</t>
+          <t>17322</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3068</t>
+          <t>3497</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18550</t>
+          <t>18022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>3473</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>20618</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7138</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>3343</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8939</t>
+          <t>22727</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3420</t>
+          <t>3316</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10888</t>
+          <t>24572</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3351</t>
+          <t>3260</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11439</t>
+          <t>25889</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11916</t>
+          <t>30561</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3097</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>18086</t>
+          <t>35847</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>2969</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>18349</t>
+          <t>38093</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2917</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>27018</t>
+          <t>42128</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"Cool dude"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>2827</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>41831</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>2834</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6691</t>
+          <t>42335</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>53854103</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Samir</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>2822</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10607</t>
+          <t>44691</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3360</t>
+          <t>2773</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>11137</t>
+          <t>46615</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3341</t>
+          <t>2735</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>11853</t>
+          <t>51608</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>2636</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12307</t>
+          <t>55277</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3302</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>15280</t>
+          <t>59897</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>17308</t>
+          <t>87268</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,456 +2198,456 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>19533</t>
+          <t>12768</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3677</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20321</t>
+          <t>5987</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>24121</t>
+          <t>11730</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>3723</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>25752</t>
+          <t>13343</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>3651</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>28485</t>
+          <t>31495</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>3074</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>31239</t>
+          <t>46236</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2864</t>
+          <t>2743</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>32533</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>4325</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>36174</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>4224</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>43057</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>53854103</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Samir</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>4187</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>45410</t>
+          <t>5817</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2629</t>
+          <t>4046</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>45666</t>
+          <t>7802</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>3922</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>48301</t>
+          <t>8402</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>3889</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>49577</t>
+          <t>8564</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>3880</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>54880</t>
+          <t>10178</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>3797</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>55012</t>
+          <t>15156</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>3575</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>81497</t>
+          <t>16220</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>3537</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>20955</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3376</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>32710</t>
+          <t>24334</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>3266</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>45848</t>
+          <t>28199</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>3157</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>9724</t>
+          <t>31667</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>3069</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>13330</t>
+          <t>32810</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3272</t>
+          <t>3039</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>15042</t>
+          <t>33962</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>3010</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>23129</t>
+          <t>34546</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>2997</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>23679</t>
+          <t>35431</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>2979</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>23720</t>
+          <t>35548</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>2976</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>31269</t>
+          <t>35897</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>2968</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30898</t>
+          <t>37871</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2923</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>31618</t>
+          <t>38173</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>31735</t>
+          <t>38692</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>2903</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>32004</t>
+          <t>39569</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>32656</t>
+          <t>40438</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>2864</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>33195</t>
+          <t>41432</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2828</t>
+          <t>2842</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>37360</t>
+          <t>44537</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>2777</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>38169</t>
+          <t>47282</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2721</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>39334</t>
+          <t>47751</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>2710</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>39447</t>
+          <t>48277</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>2698</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>40480</t>
+          <t>53701</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>2599</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>44487</t>
+          <t>55628</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>2568</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>47766</t>
+          <t>55789</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>2566</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>50406</t>
+          <t>57849</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>2536</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>50451</t>
+          <t>57964</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2535</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>52060</t>
+          <t>61676</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>55845</t>
+          <t>66199</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2445</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>57085</t>
+          <t>69333</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2390</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>57228</t>
+          <t>73374</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2256</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>60863</t>
+          <t>83623</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>2053</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>61167</t>
+          <t>87180</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2467</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>63691</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>56689806</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>无铅皮蛋QAQ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,88 +3494,88 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>64296</t>
+          <t>61688</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>78789</t>
+          <t>34746</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>85738</t>
+          <t>59856</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>56689806</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>无铅皮蛋QAQ</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3609,71 +3609,71 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8263904</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Cjhao Cjhao"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4248</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>8481950</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Natig Seferov"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4162</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>59495</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>4148</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>34642</t>
+          <t>5105</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>4093</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>53112</t>
+          <t>5833</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>4046</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>29514</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3121</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>45347</t>
+          <t>48226</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2699</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>61764</t>
+          <t>65434</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>2456</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>74694</t>
+          <t>70722</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2353</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>79165</t>
+          <t>85552</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>2032</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>89092</t>
+          <t>93402</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1936</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>107323</t>
+          <t>98373</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1708</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>105578</t>
+          <t>112123</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1512</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>109619</t>
+          <t>118320</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1494</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>115983</t>
+          <t>124792</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4014,7 +4014,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>118982</t>
+          <t>126870</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1396</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>121185</t>
+          <t>130999</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>1336</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>155671</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58310605</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Player-58310605</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57856989</t>
+          <t>58310605</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Player-57856989</t>
+          <t>Player-58310605</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58382408</t>
+          <t>57856989</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-58382408</t>
+          <t>Player-57856989</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58382408</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-58382408</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4203,17 +4203,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>11632</t>
+          <t>59982</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>2513</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>23882</t>
+          <t>10977</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>3757</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>46525</t>
+          <t>16389</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>3530</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53846</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2597</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,20 +4370,47 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26601</t>
+          <t>27281</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3201</t>
+          <t>3198</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6381</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -450,7 +450,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10096</t>
+          <t>10307</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>3772</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>5454</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5494</t>
+          <t>5579</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5655</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5845</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6502</t>
+          <t>6861</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7388</t>
+          <t>7498</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12647</t>
+          <t>12916</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13037</t>
+          <t>13280</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>45217</t>
+          <t>45565</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>49005</t>
+          <t>49322</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>61378</t>
+          <t>61568</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20919</t>
+          <t>21312</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19253</t>
+          <t>19842</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3432</t>
+          <t>3424</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5102</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4093</t>
+          <t>4085</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6393</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>4016</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6682</t>
+          <t>7062</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>3975</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8769</t>
+          <t>8934</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11266</t>
+          <t>11454</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>3745</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14884</t>
+          <t>14360</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3617</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17442</t>
+          <t>17801</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19873</t>
+          <t>20245</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>33732</t>
+          <t>29241</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3144</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>942</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4525</t>
+          <t>4502</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4421</t>
+          <t>4525</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1471</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4446</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>4790</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>5886</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,17 +1341,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8305</t>
+          <t>6833</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>3988</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>7561</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>3945</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9050</t>
+          <t>8446</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3894</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9775</t>
+          <t>9895</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>3819</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9701</t>
+          <t>9977</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>3815</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10316</t>
+          <t>10538</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1503,17 +1503,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10469</t>
+          <t>12317</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3781</t>
+          <t>3709</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>14437</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3614</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>14088</t>
+          <t>15270</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>3582</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>14177</t>
+          <t>15507</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>3573</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>14833</t>
+          <t>15941</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>3559</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>15950</t>
+          <t>16394</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>3543</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16128</t>
+          <t>16837</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3540</t>
+          <t>3526</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>17322</t>
+          <t>17706</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>3496</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18022</t>
+          <t>18374</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20618</t>
+          <t>21020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1773,17 +1773,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21900</t>
+          <t>23229</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3316</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>22727</t>
+          <t>25179</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3257</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24572</t>
+          <t>26682</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3214</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25889</t>
+          <t>30190</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3120</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30561</t>
+          <t>38023</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3097</t>
+          <t>2931</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>35847</t>
+          <t>38572</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2969</t>
+          <t>2917</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>38093</t>
+          <t>42244</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2917</t>
+          <t>2834</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>42128</t>
+          <t>42867</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>53854103</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Cool dude"</t>
+          <t>Samir</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>41831</t>
+          <t>45048</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2773</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>42335</t>
+          <t>45964</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>53854103</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Samir</t>
+          <t>"Cool dude"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>2755</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>44691</t>
+          <t>47495</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2723</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>46615</t>
+          <t>51875</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>2636</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>51608</t>
+          <t>55534</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2636</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>55277</t>
+          <t>60111</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>59897</t>
+          <t>87493</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,51 +2171,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>87268</t>
+          <t>13015</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>3677</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12768</t>
+          <t>6073</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3677</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>3969</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>11730</t>
+          <t>13254</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3723</t>
+          <t>3666</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>13343</t>
+          <t>32044</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3074</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>31495</t>
+          <t>45745</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>2759</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>46236</t>
+          <t>2188</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>4325</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2126</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4316</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3273</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4224</t>
+          <t>4180</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>5907</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>4046</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5817</t>
+          <t>7935</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>3922</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>8410</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>3895</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8402</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8564</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>10178</t>
+          <t>10391</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>15156</t>
+          <t>13940</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3575</t>
+          <t>3636</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>16220</t>
+          <t>16543</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20955</t>
+          <t>21354</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2664,7 +2664,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24334</t>
+          <t>24851</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>28199</t>
+          <t>29085</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>3149</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>31667</t>
+          <t>29928</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>32810</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,14 +2765,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3065</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>33962</t>
+          <t>33354</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>3038</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>34546</t>
+          <t>34619</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>3007</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>35431</t>
+          <t>35348</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2979</t>
+          <t>2991</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>35548</t>
+          <t>36257</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>2971</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>35897</t>
+          <t>36708</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>2961</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>37871</t>
+          <t>36959</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>38173</t>
+          <t>38390</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>2923</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>38692</t>
+          <t>39371</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>2898</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>39569</t>
+          <t>40588</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2870</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>40438</t>
+          <t>43651</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2864</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>41432</t>
+          <t>43472</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>44537</t>
+          <t>44974</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>2775</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>47282</t>
+          <t>45427</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>2765</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>47751</t>
+          <t>47944</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>2714</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>48277</t>
+          <t>48965</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>2691</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>53701</t>
+          <t>53209</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2612</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>55628</t>
+          <t>55885</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3231,7 +3231,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>55789</t>
+          <t>56280</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>57849</t>
+          <t>58196</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2535</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>57964</t>
+          <t>58226</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>61676</t>
+          <t>62204</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>66199</t>
+          <t>66868</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>2437</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>69333</t>
+          <t>69430</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3393,7 +3393,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73374</t>
+          <t>73258</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2265</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>83623</t>
+          <t>84124</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2053</t>
+          <t>2050</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>87180</t>
+          <t>87412</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3501,7 +3501,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>61688</t>
+          <t>62083</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>34746</t>
+          <t>34064</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>3020</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>59856</t>
+          <t>59050</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2525</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3656,14 +3656,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>4183</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3690,7 +3690,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5105</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5833</t>
+          <t>5926</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>29514</t>
+          <t>35098</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>2996</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>48226</t>
+          <t>48575</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>65434</t>
+          <t>67188</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2432</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>70722</t>
+          <t>70278</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2369</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>85552</t>
+          <t>72906</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>2277</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>93402</t>
+          <t>93355</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1942</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>98373</t>
+          <t>98664</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1706</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>112123</t>
+          <t>112443</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>118320</t>
+          <t>118602</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3987,17 +3987,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>124792</t>
+          <t>124082</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>126870</t>
+          <t>125154</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>130999</t>
+          <t>131384</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>155671</t>
+          <t>156182</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>59982</t>
+          <t>60192</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>10977</t>
+          <t>10668</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3757</t>
+          <t>3782</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>16389</t>
+          <t>16727</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>53846</t>
+          <t>54339</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>2593</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27281</t>
+          <t>23674</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3198</t>
+          <t>3433</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>4307</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10307</t>
+          <t>10312</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4767</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>2287</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>4578</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3772</t>
+          <t>5327</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5454</t>
+          <t>5642</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>4297</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5579</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>4280</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5655</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>4265</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>7141</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>4185</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6861</t>
+          <t>7808</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>4141</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7498</t>
+          <t>10652</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3948</t>
+          <t>3978</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12916</t>
+          <t>48038</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>2770</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13280</t>
+          <t>48362</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>2763</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>45565</t>
+          <t>63210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,78 +794,78 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>49322</t>
+          <t>21018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>3528</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>61568</t>
+          <t>19530</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3581</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21312</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>4293</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19842</t>
+          <t>6393</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3424</t>
+          <t>4242</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>6817</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>4209</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>9521</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7062</t>
+          <t>12635</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>3870</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8934</t>
+          <t>14640</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3868</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11454</t>
+          <t>18338</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>3625</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14360</t>
+          <t>22663</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>3469</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17801</t>
+          <t>32715</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20245</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3409</t>
+          <t>4753</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29241</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>4706</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>4700</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4525</t>
+          <t>4660</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4510</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>4883</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>4355</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>5392</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4316</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4790</t>
+          <t>8190</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4119</t>
+          <t>4116</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5886</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4048</t>
+          <t>4094</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6833</t>
+          <t>8703</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4086</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7561</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3945</t>
+          <t>4067</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8446</t>
+          <t>9534</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>4036</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9895</t>
+          <t>10640</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>3978</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9977</t>
+          <t>10592</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>3981</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10538</t>
+          <t>11955</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3790</t>
+          <t>3904</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>12317</t>
+          <t>13746</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3818</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>14437</t>
+          <t>15208</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>3751</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15270</t>
+          <t>15916</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>3721</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>15507</t>
+          <t>15618</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>3733</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>15941</t>
+          <t>16178</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3559</t>
+          <t>3710</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16394</t>
+          <t>16423</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3543</t>
+          <t>3700</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16837</t>
+          <t>16558</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>3695</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>17706</t>
+          <t>16646</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>3692</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18374</t>
+          <t>21113</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>3525</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>21020</t>
+          <t>22813</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>3463</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>23229</t>
+          <t>26892</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>25179</t>
+          <t>30641</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3257</t>
+          <t>3214</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>26682</t>
+          <t>38717</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3214</t>
+          <t>2996</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30190</t>
+          <t>38857</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>38023</t>
+          <t>42088</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>2910</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>38572</t>
+          <t>45025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>53854103</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>Samir</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2917</t>
+          <t>2838</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>42244</t>
+          <t>45705</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>42867</t>
+          <t>48677</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>53854103</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Samir</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>2755</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>45048</t>
+          <t>52747</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2665</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>45964</t>
+          <t>57603</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Cool dude"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>47495</t>
+          <t>59538</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>2544</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>51875</t>
+          <t>86542</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,105 +2090,105 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2636</t>
+          <t>2047</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>55534</t>
+          <t>13690</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>3821</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>60111</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4349</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>87493</t>
+          <t>9060</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>13015</t>
+          <t>14605</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3677</t>
+          <t>3778</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6073</t>
+          <t>28669</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>3271</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>47252</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3969</t>
+          <t>2787</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>13254</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>4746</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>32044</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>4556</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>45745</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>4418</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2188</t>
+          <t>4141</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4411</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>4290</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3890</t>
+          <t>5690</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>4293</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5907</t>
+          <t>7294</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>4174</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7935</t>
+          <t>7521</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>4161</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>9466</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3895</t>
+          <t>4040</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>13277</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>3840</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>16037</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3717</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>10391</t>
+          <t>21795</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>3499</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>13940</t>
+          <t>21982</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>3492</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>16543</t>
+          <t>27237</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>3315</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21354</t>
+          <t>27722</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>3300</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24851</t>
+          <t>27716</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3266</t>
+          <t>3300</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>29085</t>
+          <t>28205</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3149</t>
+          <t>3285</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>29928</t>
+          <t>30563</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>3216</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>34693</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>3103</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>33354</t>
+          <t>34845</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3038</t>
+          <t>3099</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>34619</t>
+          <t>36294</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>3059</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>35348</t>
+          <t>37467</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,14 +2846,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>3027</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>36257</t>
+          <t>37836</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2971</t>
+          <t>3017</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>36708</t>
+          <t>38551</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>3000</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>36959</t>
+          <t>40670</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>2946</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>38390</t>
+          <t>40277</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>2957</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>39371</t>
+          <t>40449</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>2952</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>40588</t>
+          <t>42246</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>2906</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>43651</t>
+          <t>47666</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2779</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>43472</t>
+          <t>47776</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>2776</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>44974</t>
+          <t>50664</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2775</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>45427</t>
+          <t>53549</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>2649</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>47944</t>
+          <t>54771</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>2624</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>48965</t>
+          <t>57028</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>2583</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>53209</t>
+          <t>58549</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>2558</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>55885</t>
+          <t>60641</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,14 +3224,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>2529</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>56280</t>
+          <t>60461</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2532</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>58196</t>
+          <t>61653</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>58226</t>
+          <t>63033</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>62204</t>
+          <t>67620</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2445</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>66868</t>
+          <t>73264</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>2310</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>69430</t>
+          <t>76735</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>2218</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73258</t>
+          <t>88685</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>84124</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56689806</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>无铅皮蛋QAQ</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,78 +3440,78 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>87412</t>
+          <t>62619</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>36258</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>56689806</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>无铅皮蛋QAQ</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3060</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>62083</t>
+          <t>53588</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>2648</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>34064</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>59050</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>5201</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4638</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>4531</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3843</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>4428</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>4412</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>4783</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4093</t>
+          <t>4363</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5926</t>
+          <t>11137</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>3949</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>35098</t>
+          <t>23807</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>3428</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>48575</t>
+          <t>42523</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>2899</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>67188</t>
+          <t>66734</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>2458</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>70278</t>
+          <t>69087</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2369</t>
+          <t>2419</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>72906</t>
+          <t>74464</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2272</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>93355</t>
+          <t>93946</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1965</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>98664</t>
+          <t>94870</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1942</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>112443</t>
+          <t>102299</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1671</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>118602</t>
+          <t>113227</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1528</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>124082</t>
+          <t>115563</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1511</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>125154</t>
+          <t>127385</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>131384</t>
+          <t>128639</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>156182</t>
+          <t>136112</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>163304</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -4127,12 +4127,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58310605</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Player-58310605</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>57856989</t>
+          <t>58310605</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-57856989</t>
+          <t>Player-58310605</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58382408</t>
+          <t>57856989</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-58382408</t>
+          <t>Player-57856989</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4203,44 +4203,44 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>60192</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58382408</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-58382408</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>10668</t>
+          <t>57351</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>2578</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>16727</t>
+          <t>6793</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>4210</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>54339</t>
+          <t>10367</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2593</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47006</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2794</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4397,20 +4397,47 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23674</t>
+          <t>26123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3433</t>
+          <t>3472</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4307</t>
+          <t>4471</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10312</t>
+          <t>10310</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4183</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4818</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2287</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4578</t>
+          <t>4805</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5327</t>
+          <t>4853</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4584</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5642</t>
+          <t>5893</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>4504</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>6101</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>4488</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>6248</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>4476</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7141</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4185</t>
+          <t>4386</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7808</t>
+          <t>7959</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4141</t>
+          <t>4344</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10652</t>
+          <t>10069</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3978</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>48038</t>
+          <t>36956</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>3134</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>48362</t>
+          <t>50298</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>2770</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>63210</t>
+          <t>64714</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21018</t>
+          <t>22463</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3610</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19530</t>
+          <t>18420</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3581</t>
+          <t>3772</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>4628</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6393</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4242</t>
+          <t>4464</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6817</t>
+          <t>6554</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>4451</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9521</t>
+          <t>8926</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>4274</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12635</t>
+          <t>11938</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>4085</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14640</t>
+          <t>12529</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>4051</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18338</t>
+          <t>18888</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>3755</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22663</t>
+          <t>24649</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>3524</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>32715</t>
+          <t>27899</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>3407</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>5313</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>803</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4706</t>
+          <t>5089</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>4993</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>4985</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4813</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4883</t>
+          <t>4544</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4355</t>
+          <t>4608</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>8602</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>4295</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8190</t>
+          <t>8706</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4116</t>
+          <t>4289</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>8985</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>4270</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8703</t>
+          <t>9576</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4086</t>
+          <t>4228</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>4211</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9534</t>
+          <t>11324</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4036</t>
+          <t>4119</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10640</t>
+          <t>11334</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3978</t>
+          <t>4119</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10592</t>
+          <t>11923</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>4086</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11955</t>
+          <t>14978</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>3924</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>13746</t>
+          <t>15222</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3818</t>
+          <t>3912</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15208</t>
+          <t>16126</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3751</t>
+          <t>3871</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15916</t>
+          <t>16302</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3721</t>
+          <t>3863</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>15618</t>
+          <t>18855</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3733</t>
+          <t>3756</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16178</t>
+          <t>20223</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3710</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16423</t>
+          <t>20816</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>3676</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16558</t>
+          <t>20819</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3695</t>
+          <t>3676</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16646</t>
+          <t>24251</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>3539</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>21113</t>
+          <t>26459</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3525</t>
+          <t>3458</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>22813</t>
+          <t>27601</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>3418</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>26892</t>
+          <t>40873</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>3018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30641</t>
+          <t>41927</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3214</t>
+          <t>2990</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>38717</t>
+          <t>43650</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>2941</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38857</t>
+          <t>47186</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>53854103</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>Samir</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>2848</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>42088</t>
+          <t>47927</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>2828</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>45025</t>
+          <t>48932</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>53854103</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Samir</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>45705</t>
+          <t>53640</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>2690</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>48677</t>
+          <t>59298</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>52747</t>
+          <t>59484</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>2572</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>57603</t>
+          <t>84624</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,78 +2036,78 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2099</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>59538</t>
+          <t>14505</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>3946</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>86542</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>4600</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13690</t>
+          <t>9201</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>4252</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>14747</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>3934</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9060</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>3496</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>14605</t>
+          <t>47889</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3778</t>
+          <t>2829</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>28669</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>5003</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>47252</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2787</t>
+          <t>4950</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>4825</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4746</t>
+          <t>4586</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>5764</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>4513</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4035</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4141</t>
+          <t>7177</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4411</t>
+          <t>4401</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>7611</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>4369</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5690</t>
+          <t>7676</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>4364</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7294</t>
+          <t>8613</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>4295</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7521</t>
+          <t>12929</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>4029</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9466</t>
+          <t>15440</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>3902</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>13277</t>
+          <t>16835</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3841</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>16037</t>
+          <t>22358</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>3614</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>21795</t>
+          <t>24072</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>3547</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>21982</t>
+          <t>27322</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>3429</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>27237</t>
+          <t>27647</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3315</t>
+          <t>3416</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>27722</t>
+          <t>29829</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3344</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>27716</t>
+          <t>31280</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2691,17 +2691,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>28205</t>
+          <t>32347</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3269</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>30563</t>
+          <t>32422</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3267</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>34693</t>
+          <t>33789</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3225</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>34845</t>
+          <t>36305</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3152</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>36294</t>
+          <t>36502</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>3146</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>37467</t>
+          <t>37217</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3027</t>
+          <t>3125</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>37836</t>
+          <t>37621</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>38551</t>
+          <t>41039</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>40670</t>
+          <t>41072</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2946</t>
+          <t>3013</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>40277</t>
+          <t>44849</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>2910</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>40449</t>
+          <t>47154</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>2849</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>42246</t>
+          <t>48219</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>2821</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>47666</t>
+          <t>55477</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>47776</t>
+          <t>55789</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2641</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>50664</t>
+          <t>57052</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2616</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>53549</t>
+          <t>57197</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>2613</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>54771</t>
+          <t>57252</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2624</t>
+          <t>2612</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>57028</t>
+          <t>58853</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>2582</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>58549</t>
+          <t>61353</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>2542</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>60641</t>
+          <t>62173</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>60461</t>
+          <t>62696</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>61653</t>
+          <t>62753</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>63033</t>
+          <t>74063</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2322</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>67620</t>
+          <t>79934</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>2190</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>73264</t>
+          <t>91562</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>76735</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56689806</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>无铅皮蛋QAQ</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,78 +3386,78 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>88685</t>
+          <t>62133</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2531</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>32462</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>56689806</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>无铅皮蛋QAQ</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3265</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>62619</t>
+          <t>55756</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2641</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>36258</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>53588</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4999</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>4715</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4638</t>
+          <t>4715</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4531</t>
+          <t>4691</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>4634</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4523</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>7907</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4363</t>
+          <t>4347</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>11137</t>
+          <t>9860</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>4210</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>23807</t>
+          <t>10243</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>4186</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>42523</t>
+          <t>46053</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>2877</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>66734</t>
+          <t>56166</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>2633</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>69087</t>
+          <t>71288</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>2395</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>74464</t>
+          <t>75527</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>2280</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>93946</t>
+          <t>95654</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>94870</t>
+          <t>96592</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1928</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>102299</t>
+          <t>105803</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1648</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>113227</t>
+          <t>115920</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3987,7 +3987,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>115563</t>
+          <t>118321</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4014,17 +4014,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>127385</t>
+          <t>128244</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1441</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>128639</t>
+          <t>130688</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>136112</t>
+          <t>131994</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>163304</t>
+          <t>140065</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>170254</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58310605</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-58310605</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>57856989</t>
+          <t>58310605</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-57856989</t>
+          <t>Player-58310605</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58382408</t>
+          <t>57856989</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-58382408</t>
+          <t>Player-57856989</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4230,44 +4230,44 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>57351</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58382408</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-58382408</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6793</t>
+          <t>56189</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>2633</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>10367</t>
+          <t>7228</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>47006</t>
+          <t>11510</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>4109</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49488</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2791</t>
         </is>
       </c>
     </row>
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4424,20 +4424,47 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26123</t>
+          <t>18380</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>4061</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6300</t>
+          <t>5610</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4471</t>
+          <t>4957</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10310</t>
+          <t>6164</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>4904</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>51898</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>2831</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2430</t>
+          <t>67319</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,294 +524,294 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4853</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4584</t>
+          <t>3760</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5893</t>
+          <t>19804</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4504</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6101</t>
+          <t>5902</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4488</t>
+          <t>4930</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6248</t>
+          <t>6882</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>4840</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7403</t>
+          <t>7444</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4386</t>
+          <t>4787</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7959</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4344</t>
+          <t>4736</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10069</t>
+          <t>10369</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4549</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>36956</t>
+          <t>13209</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3134</t>
+          <t>4360</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>50298</t>
+          <t>18618</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>64714</t>
+          <t>29263</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3581</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22463</t>
+          <t>29491</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3573</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18420</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3772</t>
+          <t>5855</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>㊥JOSE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4628</t>
+          <t>5788</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>5736</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6554</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>5688</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8926</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>5637</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11938</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>5513</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12529</t>
+          <t>2079</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>5357</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18888</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3755</t>
+          <t>5068</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>24649</t>
+          <t>5564</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>4960</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27899</t>
+          <t>6563</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>4869</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>6711</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5313</t>
+          <t>4856</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>8340</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>4708</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>4642</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>9841</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4985</t>
+          <t>4592</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>10219</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>4563</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>11971</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4608</t>
+          <t>4441</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8602</t>
+          <t>12445</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4295</t>
+          <t>4408</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8706</t>
+          <t>14803</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4289</t>
+          <t>4261</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8985</t>
+          <t>15239</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>4233</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9576</t>
+          <t>15486</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4228</t>
+          <t>4218</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>18607</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4211</t>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11324</t>
+          <t>18874</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4119</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11334</t>
+          <t>20250</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4119</t>
+          <t>3978</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11923</t>
+          <t>21382</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4086</t>
+          <t>3926</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14978</t>
+          <t>22469</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>3876</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15222</t>
+          <t>27852</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3637</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16126</t>
+          <t>28329</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3871</t>
+          <t>3618</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16302</t>
+          <t>32229</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>3476</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>18855</t>
+          <t>40338</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3756</t>
+          <t>3201</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20223</t>
+          <t>41897</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3147</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20816</t>
+          <t>44847</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>3050</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20819</t>
+          <t>47699</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>2959</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24251</t>
+          <t>48652</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3539</t>
+          <t>2929</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>26459</t>
+          <t>52313</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3458</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>27601</t>
+          <t>56226</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3418</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>40873</t>
+          <t>60478</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>2610</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>41927</t>
+          <t>60683</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2990</t>
+          <t>2606</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>43650</t>
+          <t>89001</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,213 +1847,213 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>2084</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>47186</t>
+          <t>13262</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>53854103</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Samir</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>4358</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>47927</t>
+          <t>5085</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2828</t>
+          <t>5006</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>48932</t>
+          <t>11039</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>4504</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>53640</t>
+          <t>17004</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>4131</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>59298</t>
+          <t>25869</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>3720</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>59484</t>
+          <t>50907</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>2860</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>84624</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>5383</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>14505</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>5363</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4638</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>5193</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9201</t>
+          <t>4753</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4252</t>
+          <t>5037</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>14747</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>5003</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>4919</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>47889</t>
+          <t>7666</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2829</t>
+          <t>4768</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>8073</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Rename</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>4734</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>8653</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>4684</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>8560</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4586</t>
+          <t>4691</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5764</t>
+          <t>16315</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4513</t>
+          <t>4169</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>17586</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4102</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>22256</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4401</t>
+          <t>3885</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7611</t>
+          <t>25222</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4369</t>
+          <t>3750</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7676</t>
+          <t>26856</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>8613</t>
+          <t>28993</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4295</t>
+          <t>3591</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>12929</t>
+          <t>29552</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4029</t>
+          <t>3571</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>15440</t>
+          <t>32181</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>16835</t>
+          <t>33282</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>3437</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>22358</t>
+          <t>33077</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>24072</t>
+          <t>34437</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>3398</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>27322</t>
+          <t>35040</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>3377</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>27647</t>
+          <t>36462</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3331</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>29829</t>
+          <t>38039</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3279</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>31280</t>
+          <t>39617</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3226</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>32347</t>
+          <t>41218</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>3170</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>32422</t>
+          <t>42524</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3267</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>33789</t>
+          <t>44498</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>3061</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>36305</t>
+          <t>44750</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3152</t>
+          <t>3053</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>36502</t>
+          <t>45932</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>37217</t>
+          <t>50627</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>2868</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>37621</t>
+          <t>55140</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>2740</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>41039</t>
+          <t>56411</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>2706</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>41072</t>
+          <t>56896</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>2694</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>44849</t>
+          <t>56062</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>2715</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>47154</t>
+          <t>58883</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>2643</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>48219</t>
+          <t>63216</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>2560</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>55477</t>
+          <t>64540</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>55789</t>
+          <t>65785</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>57052</t>
+          <t>72919</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2408</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>57197</t>
+          <t>80027</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2241</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>57252</t>
+          <t>84499</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,267 +3143,267 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>2171</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>58853</t>
+          <t>57844</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2669</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>61353</t>
+          <t>988</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>5589</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>62173</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>5428</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>62696</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>5377</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>62753</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>5352</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>74063</t>
+          <t>2228</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2322</t>
+          <t>5332</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>79934</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>5285</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>91562</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>5123</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>56689806</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>无铅皮蛋QAQ</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5068</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>62133</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>4523</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>32462</t>
+          <t>31958</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>3484</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>55756</t>
+          <t>62956</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2564</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5829</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>5335</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>5274</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>3914</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>5121</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>4280</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>7474</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>4786</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4203</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4634</t>
+          <t>4687</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>10388</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4523</t>
+          <t>4548</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7907</t>
+          <t>10769</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4523</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9860</t>
+          <t>11210</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>4494</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>10243</t>
+          <t>32224</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4186</t>
+          <t>3476</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>46053</t>
+          <t>49759</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>2892</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>56166</t>
+          <t>55554</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>2728</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>71288</t>
+          <t>59160</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>75527</t>
+          <t>59921</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>57038133</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>Player-57038133</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>2621</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>95654</t>
+          <t>62351</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>96592</t>
+          <t>81397</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>2218</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>105803</t>
+          <t>92550</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>2035</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>115920</t>
+          <t>99525</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>1914</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>118321</t>
+          <t>101210</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58463042</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>DiamondSloth80</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>1848</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>128244</t>
+          <t>108801</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1666</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>130688</t>
+          <t>108860</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1665</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>131994</t>
+          <t>119506</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1538</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>140065</t>
+          <t>121925</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1518</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>170254</t>
+          <t>123315</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>136346</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>137801</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58310605</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-58310605</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>147018</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>57856989</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-57856989</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>181083</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58382408</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-58382408</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,78 +4250,78 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>56189</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7228</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>11510</t>
+          <t>53170</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>2794</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>49488</t>
+          <t>5629</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2791</t>
+          <t>4955</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>12543</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,24 +4385,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4402</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55582</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2728</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4451,20 +4451,74 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18380</t>
+          <t>17816</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4061</t>
+          <t>4236</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5610</t>
+          <t>6179</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4957</t>
+          <t>5113</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6164</t>
+          <t>6183</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>5112</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>51898</t>
+          <t>52388</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>2863</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>67319</t>
+          <t>68396</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>22170</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3760</t>
+          <t>4015</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19804</t>
+          <t>19425</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4152</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5902</t>
+          <t>6112</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4930</t>
+          <t>5119</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6882</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4840</t>
+          <t>5013</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7444</t>
+          <t>7339</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4787</t>
+          <t>4997</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>8681</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4736</t>
+          <t>4870</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10369</t>
+          <t>11485</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4645</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13209</t>
+          <t>14268</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>4450</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18618</t>
+          <t>18899</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>4177</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>29263</t>
+          <t>31929</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3581</t>
+          <t>3585</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>29491</t>
+          <t>32239</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,17 +828,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>㊥JOSE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>6293</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥JOSE</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>6056</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5736</t>
+          <t>6048</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5688</t>
+          <t>5941</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5637</t>
+          <t>5940</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>5738</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2079</t>
+          <t>2621</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>5517</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>5415</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5564</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4960</t>
+          <t>5073</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6563</t>
+          <t>6650</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>5066</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6711</t>
+          <t>7312</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4856</t>
+          <t>4998</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8340</t>
+          <t>9135</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>4828</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9168</t>
+          <t>9618</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4642</t>
+          <t>4785</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9841</t>
+          <t>9706</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4592</t>
+          <t>4778</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10219</t>
+          <t>10158</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4563</t>
+          <t>4743</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11971</t>
+          <t>12559</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4441</t>
+          <t>4565</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12445</t>
+          <t>14571</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4408</t>
+          <t>4428</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14803</t>
+          <t>14669</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>4422</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15239</t>
+          <t>15674</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>4356</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15486</t>
+          <t>17309</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>4264</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>18607</t>
+          <t>17324</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>4263</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18874</t>
+          <t>17717</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>4241</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20250</t>
+          <t>19016</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3978</t>
+          <t>4171</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>21382</t>
+          <t>19789</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3926</t>
+          <t>4134</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22469</t>
+          <t>22621</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3876</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27852</t>
+          <t>27687</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>3755</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>28329</t>
+          <t>29168</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>3692</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>32229</t>
+          <t>34843</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>40338</t>
+          <t>39606</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3201</t>
+          <t>3307</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>41897</t>
+          <t>42505</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3204</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>44847</t>
+          <t>42731</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>3196</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>47699</t>
+          <t>46059</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"king of war £"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>3079</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>48652</t>
+          <t>47046</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>52313</t>
+          <t>51130</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2905</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>56226</t>
+          <t>56565</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2740</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>60478</t>
+          <t>60063</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>60683</t>
+          <t>61990</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>89001</t>
+          <t>88759</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>2116</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>13262</t>
+          <t>13772</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4358</t>
+          <t>4485</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5085</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5006</t>
+          <t>5290</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11039</t>
+          <t>10560</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4504</t>
+          <t>4714</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17004</t>
+          <t>12177</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4131</t>
+          <t>4593</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>25869</t>
+          <t>25840</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>50907</t>
+          <t>48145</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>3004</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5383</t>
+          <t>5783</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5740</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>5416</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>5411</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5107</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>5333</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>4812</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4919</t>
+          <t>5254</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7666</t>
+          <t>5322</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5203</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8073</t>
+          <t>6862</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4734</t>
+          <t>5042</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8653</t>
+          <t>8018</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>4930</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8560</t>
+          <t>9896</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>4764</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16315</t>
+          <t>16791</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4169</t>
+          <t>4293</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>17586</t>
+          <t>16964</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4102</t>
+          <t>4284</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22256</t>
+          <t>23871</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3885</t>
+          <t>3932</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>25222</t>
+          <t>26973</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>3785</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>26856</t>
+          <t>28766</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3708</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>28993</t>
+          <t>28949</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3700</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>29552</t>
+          <t>29998</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3571</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>32181</t>
+          <t>30329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3647</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>33282</t>
+          <t>30118</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>3655</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>33077</t>
+          <t>34309</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>34437</t>
+          <t>34366</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>3493</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>35040</t>
+          <t>35649</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>3447</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>36462</t>
+          <t>38793</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3335</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>38039</t>
+          <t>38832</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3279</t>
+          <t>3334</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>39617</t>
+          <t>39631</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>3307</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>41218</t>
+          <t>40631</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>3270</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>42524</t>
+          <t>42339</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>3210</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>44498</t>
+          <t>43885</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>3154</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>44750</t>
+          <t>45972</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,14 +2792,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3053</t>
+          <t>3082</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>45932</t>
+          <t>46089</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,14 +2819,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3078</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>50627</t>
+          <t>52923</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>2847</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>55140</t>
+          <t>53450</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2832</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>56411</t>
+          <t>55075</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>2782</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>56896</t>
+          <t>55612</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>2766</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>56062</t>
+          <t>56154</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2751</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>58883</t>
+          <t>57986</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>2699</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>63216</t>
+          <t>58667</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2682</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>64540</t>
+          <t>63349</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2578</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>65785</t>
+          <t>63324</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2578</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>72919</t>
+          <t>72707</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2432</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>80027</t>
+          <t>79909</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>2267</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>84499</t>
+          <t>86359</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>2162</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>57844</t>
+          <t>58592</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2684</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>5809</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>5716</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5377</t>
+          <t>5710</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>5695</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2228</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5332</t>
+          <t>5616</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2375</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5285</t>
+          <t>5560</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5123</t>
+          <t>5307</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>4947</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>5242</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7118</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4523</t>
+          <t>5019</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>31958</t>
+          <t>33318</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3484</t>
+          <t>3533</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>62956</t>
+          <t>54938</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2564</t>
+          <t>2786</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3494,14 +3494,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>5829</t>
+          <t>6288</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>5697</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>5569</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>5367</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>5296</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7474</t>
+          <t>7672</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4786</t>
+          <t>4964</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>9231</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>4818</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>10388</t>
+          <t>9245</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,14 +3683,14 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4548</t>
+          <t>4816</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>10769</t>
+          <t>10025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4523</t>
+          <t>4753</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>11210</t>
+          <t>10731</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4702</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>32224</t>
+          <t>34840</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3771,7 +3771,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>49759</t>
+          <t>48255</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>3000</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>55554</t>
+          <t>59223</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>59160</t>
+          <t>60593</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>57038133</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-57038133</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2634</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>59921</t>
+          <t>60890</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57038133</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Player-57038133</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>2628</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>62351</t>
+          <t>63970</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2568</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>81397</t>
+          <t>83276</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>2208</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>92550</t>
+          <t>93323</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>2041</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>99525</t>
+          <t>100369</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1927</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>101210</t>
+          <t>101575</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1880</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>108801</t>
+          <t>110971</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1658</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>108860</t>
+          <t>111310</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>1654</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>119506</t>
+          <t>112073</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>1643</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>121925</t>
+          <t>115241</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>1603</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>123315</t>
+          <t>123949</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1517</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>136346</t>
+          <t>125271</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>137801</t>
+          <t>138635</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>147018</t>
+          <t>140128</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>181083</t>
+          <t>149630</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>185251</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4311,44 +4311,44 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>53170</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>53660</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>4955</t>
+          <t>2825</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>12543</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,24 +4385,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>5149</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>55582</t>
+          <t>9395</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,24 +4412,24 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>4802</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56507</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4505,20 +4505,47 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17816</t>
+          <t>18767</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4236</t>
+          <t>4215</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6179</t>
+          <t>6621</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5113</t>
+          <t>5091</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6183</t>
+          <t>6484</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5112</t>
+          <t>5104</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>52388</t>
+          <t>50990</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>68396</t>
+          <t>68848</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22170</t>
+          <t>21548</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4015</t>
+          <t>4077</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19425</t>
+          <t>20039</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6112</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5119</t>
+          <t>5262</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7169</t>
+          <t>7575</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>4997</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7339</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4997</t>
+          <t>4984</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8681</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11485</t>
+          <t>12098</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>4626</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14268</t>
+          <t>14902</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>4435</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18899</t>
+          <t>17323</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>4292</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31929</t>
+          <t>32847</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3581</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>32239</t>
+          <t>33340</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>3561</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6293</t>
+          <t>6321</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6056</t>
+          <t>6057</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>7272949</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>"㊥JOJO ᴿᴳᴿ★"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6048</t>
+          <t>6040</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>6030</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>825</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5939</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5919</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>5816</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5415</t>
+          <t>5516</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5073</t>
+          <t>5513</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6650</t>
+          <t>6865</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1098,17 +1098,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7312</t>
+          <t>6868</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4998</t>
+          <t>5065</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9135</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4828</t>
+          <t>4998</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9618</t>
+          <t>9430</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4785</t>
+          <t>4827</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9706</t>
+          <t>9919</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4778</t>
+          <t>4785</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10158</t>
+          <t>10012</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>4778</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12559</t>
+          <t>10404</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>4750</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14571</t>
+          <t>11759</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>4650</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14669</t>
+          <t>14689</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4422</t>
+          <t>4450</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15674</t>
+          <t>14754</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>4446</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17309</t>
+          <t>15893</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4264</t>
+          <t>4373</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17324</t>
+          <t>16163</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>4359</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17717</t>
+          <t>16525</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>4337</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19016</t>
+          <t>17994</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>4256</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19789</t>
+          <t>18777</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>4214</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22621</t>
+          <t>19863</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4159</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27687</t>
+          <t>23264</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3755</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>29168</t>
+          <t>28669</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>3748</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>34843</t>
+          <t>30291</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>3681</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>39606</t>
+          <t>35093</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>3497</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>42505</t>
+          <t>38909</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3359</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>42731</t>
+          <t>42493</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>3233</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>46059</t>
+          <t>42876</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3079</t>
+          <t>3219</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>47046</t>
+          <t>43384</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"king of war £"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3200</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>51130</t>
+          <t>46222</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>3094</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>56565</t>
+          <t>46466</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>60063</t>
+          <t>48916</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>2998</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>61990</t>
+          <t>52263</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2886</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>88759</t>
+          <t>60573</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,51 +1847,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>13772</t>
+          <t>89596</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>2108</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4473</t>
+          <t>14203</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>4485</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10560</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4714</t>
+          <t>5296</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>12177</t>
+          <t>5963</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>5155</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>25840</t>
+          <t>12572</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>4593</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>48145</t>
+          <t>25334</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>3894</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>46336</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5783</t>
+          <t>3090</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2070,17 +2070,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5416</t>
+          <t>5738</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3431</t>
+          <t>3053</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5411</t>
+          <t>5484</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>3486</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5333</t>
+          <t>5428</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5254</t>
+          <t>5414</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5322</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5203</t>
+          <t>5336</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6862</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rename</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5042</t>
+          <t>5285</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8018</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Rename</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4930</t>
+          <t>5042</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9896</t>
+          <t>8346</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4764</t>
+          <t>4922</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16791</t>
+          <t>8670</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>4895</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>16964</t>
+          <t>10212</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4284</t>
+          <t>4764</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>23871</t>
+          <t>15939</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3932</t>
+          <t>4371</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>26973</t>
+          <t>17465</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>4284</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>28766</t>
+          <t>24554</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>3932</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>28949</t>
+          <t>25762</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>3875</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>29998</t>
+          <t>28210</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3767</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30329</t>
+          <t>28323</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>3763</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30118</t>
+          <t>29408</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>3716</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>34309</t>
+          <t>29668</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>3706</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>34366</t>
+          <t>30860</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>3658</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>35649</t>
+          <t>32804</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>3583</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>38793</t>
+          <t>34948</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>3502</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>38832</t>
+          <t>35128</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3334</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>39631</t>
+          <t>37073</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>3423</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>40631</t>
+          <t>40289</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>42339</t>
+          <t>40465</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>3305</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>43885</t>
+          <t>41828</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>45972</t>
+          <t>42849</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,14 +2792,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>46089</t>
+          <t>42895</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3078</t>
+          <t>3219</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>52923</t>
+          <t>44910</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2847</t>
+          <t>3142</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>53450</t>
+          <t>44896</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>3142</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>55075</t>
+          <t>52295</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>2885</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>55612</t>
+          <t>53177</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>2855</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>56154</t>
+          <t>53412</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>2847</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>57986</t>
+          <t>56253</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>2761</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>58667</t>
+          <t>56716</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>2748</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>63349</t>
+          <t>58409</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>2699</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>63324</t>
+          <t>59492</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>2671</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>72707</t>
+          <t>63990</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>79909</t>
+          <t>64577</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2267</t>
+          <t>2564</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>86359</t>
+          <t>73067</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,78 +3143,78 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>2431</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>58592</t>
+          <t>80593</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>2260</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>86801</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5809</t>
+          <t>2162</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>58261</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>2704</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5826</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>5757</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5616</t>
+          <t>5695</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>5687</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5307</t>
+          <t>5622</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4947</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5242</t>
+          <t>5553</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7118</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>5322</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>33318</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3533</t>
+          <t>5299</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>54938</t>
+          <t>5188</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>5237</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>34108</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>6288</t>
+          <t>3532</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>55908</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>5697</t>
+          <t>2771</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2316</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5569</t>
+          <t>6311</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3759</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5367</t>
+          <t>5701</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5296</t>
+          <t>5618</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7672</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>5342</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>9231</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>5298</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>9245</t>
+          <t>7749</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4816</t>
+          <t>4981</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>10025</t>
+          <t>9154</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>4851</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>10731</t>
+          <t>9529</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>4818</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>34840</t>
+          <t>10364</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>4753</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>48255</t>
+          <t>11062</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4702</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>59223</t>
+          <t>35632</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>3476</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>60593</t>
+          <t>48851</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57038133</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Player-57038133</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>3000</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>60890</t>
+          <t>58766</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2690</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>63970</t>
+          <t>61400</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>57038133</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>Player-57038133</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>2626</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>83276</t>
+          <t>61320</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2628</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>93323</t>
+          <t>61874</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>2616</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>100369</t>
+          <t>65441</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>2549</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>101575</t>
+          <t>84082</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>58463042</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DiamondSloth80</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>2201</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>110971</t>
+          <t>93708</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>2041</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>111310</t>
+          <t>100877</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1919</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>112073</t>
+          <t>102548</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>58463042</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>DiamondSloth80</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1858</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>115241</t>
+          <t>110598</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1673</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>123949</t>
+          <t>111840</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1654</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>125271</t>
+          <t>113046</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1637</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>138635</t>
+          <t>115814</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1603</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>140128</t>
+          <t>124532</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1517</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>149630</t>
+          <t>125869</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>185251</t>
+          <t>139341</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>140832</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>150524</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,105 +4331,105 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>53660</t>
+          <t>186580</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>5149</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>9395</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>4802</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>56507</t>
+          <t>54175</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,24 +4439,24 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2824</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,24 +4466,24 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5338</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>9683</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,24 +4493,24 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4802</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57254</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2733</t>
         </is>
       </c>
     </row>
@@ -4532,20 +4532,101 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18767</t>
+          <t>20365</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4215</t>
+          <t>4238</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6621</t>
+          <t>7099</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5091</t>
+          <t>5216</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>6501</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5104</t>
+          <t>5287</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>50990</t>
+          <t>51985</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>68848</t>
+          <t>69510</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21548</t>
+          <t>22682</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>4115</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20039</t>
+          <t>19771</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4152</t>
+          <t>4269</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5262</t>
+          <t>5340</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7575</t>
+          <t>6706</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4997</t>
+          <t>5262</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>5207</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>7377</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4870</t>
+          <t>5186</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12098</t>
+          <t>12094</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>4758</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14902</t>
+          <t>12804</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>4708</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>18522</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4292</t>
+          <t>4336</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>32847</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3581</t>
+          <t>3603</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>33340</t>
+          <t>34307</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3561</t>
+          <t>3591</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥JOSE</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>6400</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6057</t>
+          <t>6284</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7272949</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"㊥JOJO ᴿᴳᴿ★"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>6263</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>6210</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>6019</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>5788</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5816</t>
+          <t>5606</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>4958</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5516</t>
+          <t>5460</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>6755</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>5256</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6865</t>
+          <t>7944</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5066</t>
+          <t>5123</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6868</t>
+          <t>9055</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5065</t>
+          <t>5012</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7553</t>
+          <t>10290</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4998</t>
+          <t>4904</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9430</t>
+          <t>10796</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>4862</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9919</t>
+          <t>11506</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4785</t>
+          <t>4805</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10012</t>
+          <t>12316</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4778</t>
+          <t>4743</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10404</t>
+          <t>13034</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>4692</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11759</t>
+          <t>15737</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>4501</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14689</t>
+          <t>15789</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>4498</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14754</t>
+          <t>16136</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4446</t>
+          <t>4477</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15893</t>
+          <t>17143</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4415</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16163</t>
+          <t>18627</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>4331</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16525</t>
+          <t>18684</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4337</t>
+          <t>4327</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17994</t>
+          <t>21821</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4256</t>
+          <t>4162</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18777</t>
+          <t>23863</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4214</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19863</t>
+          <t>29216</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4159</t>
+          <t>3798</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>23264</t>
+          <t>33172</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>3635</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>28669</t>
+          <t>33668</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>3617</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30291</t>
+          <t>36695</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3681</t>
+          <t>3497</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>35093</t>
+          <t>37056</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>3483</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>38909</t>
+          <t>40267</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>3361</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>42493</t>
+          <t>42892</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3233</t>
+          <t>3263</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>42876</t>
+          <t>42909</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>3262</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>43384</t>
+          <t>45181</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>3178</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>46222</t>
+          <t>47806</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3094</t>
+          <t>3081</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>46466</t>
+          <t>50925</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>2964</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>48916</t>
+          <t>60298</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"king of war £"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>2672</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>52263</t>
+          <t>91603</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,78 +1820,78 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2085</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>60573</t>
+          <t>13694</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>89596</t>
+          <t>4759</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>5481</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>14203</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>5164</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4602</t>
+          <t>14512</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5296</t>
+          <t>4582</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5963</t>
+          <t>25766</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5155</t>
+          <t>3955</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>12572</t>
+          <t>46665</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>3122</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>25334</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>6049</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>46336</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>5970</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5740</t>
+          <t>5659</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5630</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3053</t>
+          <t>4754</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5484</t>
+          <t>5481</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>4770</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>5480</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>Rename</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5414</t>
+          <t>5297</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4231</t>
+          <t>7452</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>5176</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>8158</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5285</t>
+          <t>5098</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>8735</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rename</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5042</t>
+          <t>5040</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8346</t>
+          <t>12217</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>4749</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8670</t>
+          <t>16594</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>4447</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10212</t>
+          <t>17295</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4764</t>
+          <t>4406</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>15939</t>
+          <t>24612</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>4016</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>17465</t>
+          <t>26137</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4284</t>
+          <t>3935</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>24554</t>
+          <t>28120</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3932</t>
+          <t>3845</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>25762</t>
+          <t>29070</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>3804</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>28210</t>
+          <t>29039</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>3805</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>28323</t>
+          <t>30066</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>3761</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>29408</t>
+          <t>31782</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3716</t>
+          <t>3690</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>29668</t>
+          <t>34276</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3592</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30860</t>
+          <t>34448</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3658</t>
+          <t>3585</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>32804</t>
+          <t>34781</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3583</t>
+          <t>3573</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>34948</t>
+          <t>36063</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3521</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>35128</t>
+          <t>36901</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>3489</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>37073</t>
+          <t>41769</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>3305</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>40289</t>
+          <t>42710</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3269</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>40465</t>
+          <t>42754</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3305</t>
+          <t>3267</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>41828</t>
+          <t>43476</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3243</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>42849</t>
+          <t>43455</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3243</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>42895</t>
+          <t>45800</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>3154</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>44910</t>
+          <t>53924</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3142</t>
+          <t>2860</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>44896</t>
+          <t>54056</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3142</t>
+          <t>2856</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>52295</t>
+          <t>55032</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2885</t>
+          <t>2824</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>53177</t>
+          <t>55189</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>53412</t>
+          <t>57132</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2847</t>
+          <t>2760</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>56253</t>
+          <t>59419</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>2694</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>56716</t>
+          <t>60634</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2664</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>58409</t>
+          <t>61533</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>2641</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>59492</t>
+          <t>63138</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2606</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>63990</t>
+          <t>71192</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2477</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>64577</t>
+          <t>74314</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2564</t>
+          <t>2419</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>73067</t>
+          <t>87786</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,78 +3143,78 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>2161</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>80593</t>
+          <t>57616</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>2746</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>86801</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>6219</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>58261</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>6163</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5933</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5757</t>
+          <t>5930</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>2424</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>5800</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>2711</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>5752</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>4828</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>5475</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5553</t>
+          <t>5470</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5322</t>
+          <t>5345</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>5299</t>
+          <t>3677</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5188</t>
+          <t>57469</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>5237</t>
+          <t>2750</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>34108</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3532</t>
+          <t>6303</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>55908</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>6048</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>6311</t>
+          <t>5618</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,14 +3575,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5701</t>
+          <t>5616</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>5612</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4181</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>5342</t>
+          <t>5177</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>7643</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>5298</t>
+          <t>5156</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7749</t>
+          <t>8388</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4981</t>
+          <t>5076</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>9154</t>
+          <t>8466</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4851</t>
+          <t>5069</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9529</t>
+          <t>9154</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>5004</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>10364</t>
+          <t>37258</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>3476</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>11062</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>3106</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>35632</t>
+          <t>59919</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>48851</t>
+          <t>62371</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2623</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>58766</t>
+          <t>63077</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>2608</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>61400</t>
+          <t>63867</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2591</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>61320</t>
+          <t>65425</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2562</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>61874</t>
+          <t>85127</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>41463618</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>qi ye</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2198</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>65441</t>
+          <t>92956</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>2063</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>84082</t>
+          <t>101392</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>1929</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>93708</t>
+          <t>102185</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>58463042</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>DiamondSloth80</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>1898</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>100877</t>
+          <t>104511</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>102548</t>
+          <t>110555</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58463042</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DiamondSloth80</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1692</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>110598</t>
+          <t>112744</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1657</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>111840</t>
+          <t>112959</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4149,17 +4149,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>113046</t>
+          <t>123640</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>1533</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>115814</t>
+          <t>127054</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>124532</t>
+          <t>140730</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>125869</t>
+          <t>142229</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>139341</t>
+          <t>152149</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>140832</t>
+          <t>165943</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1242</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>150524</t>
+          <t>189482</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>186580</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4392,44 +4392,44 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53622</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2871</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>54175</t>
+          <t>5176</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,24 +4439,24 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>5437</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>11512</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,24 +4466,24 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>5338</t>
+          <t>4804</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>9683</t>
+          <t>56519</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,24 +4493,24 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>4802</t>
+          <t>2778</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>57254</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4586,12 +4586,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4600,33 +4600,6 @@
         </is>
       </c>
       <c r="E157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20365</t>
+          <t>16830</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4569</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7099</t>
+          <t>7554</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>5356</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6501</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5287</t>
+          <t>6774</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>51985</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>6571</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>69510</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,402 +524,402 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>6324</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22682</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>6203</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19771</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>5923</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>5916</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6706</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5262</t>
+          <t>5901</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>5781</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7377</t>
+          <t>5334</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>5632</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12094</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4758</t>
+          <t>5553</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12804</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>5549</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18522</t>
+          <t>7901</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>5313</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>8153</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3603</t>
+          <t>5282</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>34307</t>
+          <t>8293</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>5265</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>53335</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>70504</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>7678</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6263</t>
+          <t>5340</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>23084</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>4215</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>19067</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>4440</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>6251</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>5521</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3683</t>
+          <t>7219</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>5398</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4958</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6755</t>
+          <t>7887</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5256</t>
+          <t>5314</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7944</t>
+          <t>11457</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5123</t>
+          <t>4973</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9055</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>4784</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10290</t>
+          <t>19923</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>4394</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10796</t>
+          <t>33303</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>3721</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11506</t>
+          <t>36425</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>3591</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>12316</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>6748</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13034</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>6595</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>15737</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>6544</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>15789</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4498</t>
+          <t>6484</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16136</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>6229</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17143</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>5925</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>18627</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4331</t>
+          <t>5806</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18684</t>
+          <t>6962</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4327</t>
+          <t>5433</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>21821</t>
+          <t>7860</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>5318</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>23863</t>
+          <t>10070</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>5090</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>29216</t>
+          <t>10440</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>5060</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>33172</t>
+          <t>10564</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>5048</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>33668</t>
+          <t>10869</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>5022</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>36695</t>
+          <t>12760</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>4868</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>37056</t>
+          <t>13402</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>4817</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>40267</t>
+          <t>14192</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>4753</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>42892</t>
+          <t>15286</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>4674</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>42909</t>
+          <t>17636</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3262</t>
+          <t>4519</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>45181</t>
+          <t>17930</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3178</t>
+          <t>4504</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>47806</t>
+          <t>18226</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"king of war £"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>4489</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>50925</t>
+          <t>18535</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>4470</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>60298</t>
+          <t>22400</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>4256</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>91603</t>
+          <t>23059</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,402 +1820,402 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2085</t>
+          <t>4217</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>13694</t>
+          <t>28924</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>3910</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>29808</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5481</t>
+          <t>3870</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>33947</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5164</t>
+          <t>3695</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>14512</t>
+          <t>34737</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>3661</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>25766</t>
+          <t>35821</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3955</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>46665</t>
+          <t>37444</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>3551</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6049</t>
+          <t>3518</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>39457</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>3469</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>43163</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5659</t>
+          <t>3322</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>46973</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>3175</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4754</t>
+          <t>50338</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5481</t>
+          <t>3041</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>49702</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5480</t>
+          <t>3067</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>52962</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rename</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5297</t>
+          <t>2942</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7452</t>
+          <t>93006</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5176</t>
+          <t>2082</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8158</t>
+          <t>12851</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5098</t>
+          <t>4861</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8735</t>
+          <t>4633</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5718</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12217</t>
+          <t>5401</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4749</t>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16594</t>
+          <t>26652</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4447</t>
+          <t>4021</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>17295</t>
+          <t>48800</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>3102</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>24612</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>6129</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>26137</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3935</t>
+          <t>5752</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>28120</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3845</t>
+          <t>5614</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>29070</t>
+          <t>6498</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Rename</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3804</t>
+          <t>5488</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>29039</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3805</t>
+          <t>5334</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30066</t>
+          <t>7877</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3761</t>
+          <t>5315</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>31782</t>
+          <t>11774</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3690</t>
+          <t>4946</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>34276</t>
+          <t>17285</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>4540</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>34448</t>
+          <t>17387</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>4534</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>34781</t>
+          <t>25318</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>4093</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>36063</t>
+          <t>26381</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>4034</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>36901</t>
+          <t>28418</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3489</t>
+          <t>3933</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>41769</t>
+          <t>29059</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3305</t>
+          <t>3903</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>42710</t>
+          <t>29703</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>3875</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>42754</t>
+          <t>31564</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3267</t>
+          <t>3795</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>43476</t>
+          <t>33503</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3714</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>43455</t>
+          <t>34749</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>45800</t>
+          <t>35241</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3640</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>53924</t>
+          <t>35999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>3608</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>54056</t>
+          <t>36359</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>3594</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>55032</t>
+          <t>38220</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>3517</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>55189</t>
+          <t>42139</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>3363</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>57132</t>
+          <t>42905</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>3332</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>59419</t>
+          <t>43109</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>3324</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>60634</t>
+          <t>43625</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>3305</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>61533</t>
+          <t>43898</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>3293</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>63138</t>
+          <t>47365</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>3159</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>71192</t>
+          <t>50237</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2477</t>
+          <t>3045</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>74314</t>
+          <t>55343</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>2855</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>87786</t>
+          <t>56373</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,267 +3143,267 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2821</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>57616</t>
+          <t>56948</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2746</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>58847</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>6219</t>
+          <t>2745</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>59593</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6163</t>
+          <t>2723</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>59367</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5933</t>
+          <t>2730</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>60844</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>61252</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>2678</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>69566</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5752</t>
+          <t>2512</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4828</t>
+          <t>75887</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5475</t>
+          <t>2405</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>89208</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>2158</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>58288</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>2761</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3677</t>
+          <t>6196</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>57469</t>
+          <t>2264</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>6077</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>5810</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>4898</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>6048</t>
+          <t>5687</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>33693</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>3705</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>60369</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5616</t>
+          <t>2702</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5612</t>
+          <t>6461</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>5177</t>
+          <t>6352</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7643</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>5918</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>8388</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>5076</t>
+          <t>5816</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>8466</t>
+          <t>7009</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>5427</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9154</t>
+          <t>7434</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>5370</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>37258</t>
+          <t>9924</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>5104</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>35441</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>59919</t>
+          <t>49252</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>3084</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>62371</t>
+          <t>58370</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>57038133</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-57038133</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>2759</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>63077</t>
+          <t>58975</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>41463618</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>qi ye</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>63867</t>
+          <t>61575</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57038133</t>
+          <t>53090046</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Player-57038133</t>
+          <t>Naransolongo</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>2669</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>65425</t>
+          <t>64097</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>2610</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>85127</t>
+          <t>65725</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2576</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>92956</t>
+          <t>70936</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>101392</t>
+          <t>86341</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>2198</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>102185</t>
+          <t>91964</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>2103</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>104511</t>
+          <t>92690</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>2088</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>110555</t>
+          <t>102307</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>57605565</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>"Leonel Messi"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1932</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>112744</t>
+          <t>102387</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1929</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>112959</t>
+          <t>105657</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>123640</t>
+          <t>112548</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1685</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>127054</t>
+          <t>114488</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1654</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>140730</t>
+          <t>116613</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1627</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>142229</t>
+          <t>125409</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1532</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>152149</t>
+          <t>128787</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>165943</t>
+          <t>142727</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58494374</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Kirinfire</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>189482</t>
+          <t>144249</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>154615</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>166699</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,132 +4385,132 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1259</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>53622</t>
+          <t>186177</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58479166</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>ريانRedSomebody264</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5176</t>
+          <t>193566</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>5437</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>11512</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>4804</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>56519</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54201</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4520,24 +4520,24 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2897</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4547,24 +4547,24 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5836</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>10130</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,32 +4574,140 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5085</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>58166</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2765</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>999999</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16830</t>
+          <t>18612</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4569</t>
+          <t>4589</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7554</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5356</t>
+          <t>6625</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6774</t>
+          <t>6211</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>7796</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>5508</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6324</t>
+          <t>6995</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6203</t>
+          <t>6948</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3143</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5923</t>
+          <t>6905</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3181</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>6855</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5901</t>
+          <t>6614</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5781</t>
+          <t>6075</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>6845</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5553</t>
+          <t>6508</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5549</t>
+          <t>6434</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7901</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5313</t>
+          <t>6423</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8153</t>
+          <t>2298</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5282</t>
+          <t>6305</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8293</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5265</t>
+          <t>6299</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>53335</t>
+          <t>2585</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>6248</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>70504</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>6194</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7678</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,618 +902,618 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>6179</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>23084</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4215</t>
+          <t>6141</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19067</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>6071</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6251</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>6036</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7219</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>6012</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>5941</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7887</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>5919</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11457</t>
+          <t>4894</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>5905</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>5056</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4784</t>
+          <t>5885</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19923</t>
+          <t>5091</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4394</t>
+          <t>5883</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>33303</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3721</t>
+          <t>5823</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>36425</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>5746</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>6776</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6748</t>
+          <t>5656</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>6822</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6595</t>
+          <t>5649</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>7678</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6544</t>
+          <t>5523</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>8105</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>5468</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>8793</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>5382</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>13193</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5925</t>
+          <t>4985</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3948</t>
+          <t>37435</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5806</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6962</t>
+          <t>49908</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5433</t>
+          <t>3116</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7860</t>
+          <t>53436</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5318</t>
+          <t>2970</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10070</t>
+          <t>71509</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10440</t>
+          <t>99046</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>57484853</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"vector to islam"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5060</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10564</t>
+          <t>21862</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>4413</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10869</t>
+          <t>19362</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5022</t>
+          <t>4548</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>12760</t>
+          <t>6033</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>5760</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>13402</t>
+          <t>6387</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4817</t>
+          <t>5713</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>14192</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>5638</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>15286</t>
+          <t>7739</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>5516</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>17636</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>4999</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>17930</t>
+          <t>15377</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4504</t>
+          <t>4798</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18226</t>
+          <t>18836</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4489</t>
+          <t>4577</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18535</t>
+          <t>30310</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4470</t>
+          <t>3943</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>22400</t>
+          <t>38311</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4256</t>
+          <t>3591</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>23059</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>5981</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>28924</t>
+          <t>7667</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>5525</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>29808</t>
+          <t>7850</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>5501</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>33947</t>
+          <t>9830</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3695</t>
+          <t>5277</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>34737</t>
+          <t>10666</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>5201</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>35821</t>
+          <t>11809</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>5100</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>37444</t>
+          <t>11841</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>5098</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>38186</t>
+          <t>12817</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>5016</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>39457</t>
+          <t>14056</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>4906</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>43163</t>
+          <t>14219</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>4893</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>46973</t>
+          <t>15977</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3175</t>
+          <t>4752</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>50338</t>
+          <t>16363</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>4725</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>49702</t>
+          <t>17916</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"king of war £"</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3067</t>
+          <t>4627</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>52962</t>
+          <t>19178</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>4558</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>93006</t>
+          <t>19694</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,429 +2198,429 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2082</t>
+          <t>4531</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12851</t>
+          <t>21731</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4861</t>
+          <t>4419</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>24849</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5718</t>
+          <t>4230</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5401</t>
+          <t>25984</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>4161</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>26652</t>
+          <t>27644</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>4070</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>48800</t>
+          <t>28475</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>4030</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>30988</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>3910</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>31170</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5752</t>
+          <t>3902</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>33192</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5614</t>
+          <t>3817</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6498</t>
+          <t>36328</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rename</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>3681</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>39729</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>3531</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7877</t>
+          <t>44296</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>3345</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>11774</t>
+          <t>44828</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4946</t>
+          <t>3322</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17285</t>
+          <t>51693</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>17387</t>
+          <t>53656</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>25318</t>
+          <t>93167</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4093</t>
+          <t>2104</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>26381</t>
+          <t>8877</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4034</t>
+          <t>5371</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>28418</t>
+          <t>27895</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3933</t>
+          <t>4058</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>29059</t>
+          <t>46689</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>3249</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>29703</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Rename</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>5893</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>31564</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3795</t>
+          <t>5441</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>33503</t>
+          <t>17194</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>4673</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>34749</t>
+          <t>18481</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>4595</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>35241</t>
+          <t>25597</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3640</t>
+          <t>4185</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>35999</t>
+          <t>28006</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>36359</t>
+          <t>29689</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3594</t>
+          <t>3974</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>38220</t>
+          <t>29381</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3517</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>42139</t>
+          <t>30104</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3952</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>42905</t>
+          <t>33347</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>3811</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>43109</t>
+          <t>33602</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>3801</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>43625</t>
+          <t>34157</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3305</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>43898</t>
+          <t>33923</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>3787</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>47365</t>
+          <t>34892</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>3745</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>50237</t>
+          <t>37610</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3623</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>55343</t>
+          <t>37811</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>3615</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>56373</t>
+          <t>43346</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>3384</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>56948</t>
+          <t>44562</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>3333</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>58847</t>
+          <t>44744</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>3326</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>59593</t>
+          <t>44779</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>59367</t>
+          <t>44808</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>3323</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>60844</t>
+          <t>47555</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>3217</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>61252</t>
+          <t>51904</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>3034</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>69566</t>
+          <t>52270</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>3020</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>75887</t>
+          <t>55394</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2896</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>89208</t>
+          <t>56337</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,240 +3386,240 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2158</t>
+          <t>2860</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>58288</t>
+          <t>57764</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>2812</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>58169</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>60101</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6077</t>
+          <t>2740</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>60801</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>5810</t>
+          <t>2720</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4898</t>
+          <t>62124</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>2683</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>33693</t>
+          <t>64913</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>60369</t>
+          <t>73926</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>2464</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>83910</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>6461</t>
+          <t>2254</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>58805</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>6352</t>
+          <t>2780</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3173</t>
+          <t>31906</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>5918</t>
+          <t>3873</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>54150</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>5816</t>
+          <t>2942</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7009</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>5427</t>
+          <t>6886</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7434</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>5370</t>
+          <t>6041</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>9924</t>
+          <t>6734</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>5104</t>
+          <t>5662</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>35441</t>
+          <t>6776</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>5656</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>49252</t>
+          <t>10257</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>5236</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>58370</t>
+          <t>51302</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57038133</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Player-57038133</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>3057</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>58975</t>
+          <t>58825</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>57038133</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Player-57038133</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>2779</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>61575</t>
+          <t>61027</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>53090046</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Naransolongo</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2714</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>64097</t>
+          <t>64722</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2619</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>65725</t>
+          <t>68732</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2542</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>70936</t>
+          <t>73182</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2476</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>86341</t>
+          <t>87954</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2193</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>91964</t>
+          <t>90168</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>2162</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>92690</t>
+          <t>93985</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>2087</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>102307</t>
+          <t>104007</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>57605565</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"Leonel Messi"</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>102387</t>
+          <t>108806</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1772</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>105657</t>
+          <t>109026</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>58537218</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>"BRAWL TALK"</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,14 +4142,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1767</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>112548</t>
+          <t>114029</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>114488</t>
+          <t>115990</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>116613</t>
+          <t>118592</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1622</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>125409</t>
+          <t>127329</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>1531</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>128787</t>
+          <t>130556</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>142727</t>
+          <t>144809</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4311,7 +4311,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>144249</t>
+          <t>146394</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4338,17 +4338,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>154615</t>
+          <t>154771</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1346</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>166699</t>
+          <t>157228</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58494374</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Kirinfire</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,24 +4385,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>186177</t>
+          <t>169813</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>58479166</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ريانRedSomebody264</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,24 +4412,24 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1259</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>193566</t>
+          <t>190237</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58479166</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>ريانRedSomebody264</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,24 +4439,24 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>197953</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4500,44 +4500,44 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>54201</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3732</t>
+          <t>51858</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4547,24 +4547,24 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>3036</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>10130</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,24 +4574,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5085</t>
+          <t>6104</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>58166</t>
+          <t>9327</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4601,24 +4601,24 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>5321</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57119</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2833</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4694,20 +4694,47 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18612</t>
+          <t>20274</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>4604</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>4979</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>6101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6211</t>
+          <t>6583</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7796</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5508</t>
+          <t>6330</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6995</t>
+          <t>6320</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>7369</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6948</t>
+          <t>5732</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>4868</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6905</t>
+          <t>6111</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>41011</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>6016757</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>Xx邪罗罗xX</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6855</t>
+          <t>3534</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>7349</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6614</t>
+          <t>5738</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>7186</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6845</t>
+          <t>6075</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>54417</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>2970</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6434</t>
+          <t>7281</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>4899</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6423</t>
+          <t>6108</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2298</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6305</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>8012</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6299</t>
+          <t>5630</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6248</t>
+          <t>6351</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>7137</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>6531</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6179</t>
+          <t>5881</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6525</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>4191</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>6196</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>6768</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6036</t>
+          <t>5834</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4092</t>
+          <t>72376</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6012</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4602</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>6268</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4785</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>6492</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4894</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5905</t>
+          <t>6426</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5056</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>6924</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5091</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>6182</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>6388</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5746</t>
+          <t>7167</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6776</t>
+          <t>38845</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6822</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5649</t>
+          <t>6623</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7678</t>
+          <t>7894</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5523</t>
+          <t>5648</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8105</t>
+          <t>12555</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5468</t>
+          <t>5194</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8793</t>
+          <t>55810</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>30129740</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>JohnyWS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5382</t>
+          <t>2915</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13193</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4985</t>
+          <t>6198</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>37435</t>
+          <t>7608</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>5695</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>49908</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"king of war £"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3116</t>
+          <t>7164</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>53436</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>6157</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>71509</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>7138</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>99046</t>
+          <t>5754</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>57484853</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"vector to islam"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,267 +1496,267 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>6021</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>21862</t>
+          <t>49144</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4413</t>
+          <t>3205</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19362</t>
+          <t>6894</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4548</t>
+          <t>5813</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6033</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>6207</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6387</t>
+          <t>10530</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>5351</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5638</t>
+          <t>6366</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7739</t>
+          <t>4509</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5516</t>
+          <t>6152</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>13014</t>
+          <t>5504</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>6046</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>15377</t>
+          <t>18691</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>54189845</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"going down ®"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4798</t>
+          <t>4684</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18836</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>57484853</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"vector to islam"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4577</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30310</t>
+          <t>54618</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>38311</t>
+          <t>44737</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3380</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4333</t>
+          <t>27658</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>4150</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7667</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5525</t>
+          <t>5784</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7850</t>
+          <t>21025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5501</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9830</t>
+          <t>19494</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10666</t>
+          <t>10360</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5366</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11809</t>
+          <t>17129</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5100</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11841</t>
+          <t>11028</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5098</t>
+          <t>5311</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12817</t>
+          <t>7359</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>5735</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>14056</t>
+          <t>7428</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4906</t>
+          <t>5722</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>14219</t>
+          <t>32761</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4893</t>
+          <t>3910</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>15977</t>
+          <t>42232</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>3481</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16363</t>
+          <t>10959</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>5316</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17916</t>
+          <t>17046</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4627</t>
+          <t>4787</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19178</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4558</t>
+          <t>5795</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19694</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4531</t>
+          <t>4666</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21731</t>
+          <t>21345</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>24849</t>
+          <t>22823</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4230</t>
+          <t>4475</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>25984</t>
+          <t>25043</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>4311</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>27644</t>
+          <t>5950</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>6001</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>28475</t>
+          <t>19776</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4628</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30988</t>
+          <t>22387</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>31170</t>
+          <t>31645</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>3959</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>33192</t>
+          <t>13559</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3817</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>36328</t>
+          <t>7178</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3681</t>
+          <t>5763</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>39729</t>
+          <t>38496</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>44296</t>
+          <t>10090</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3345</t>
+          <t>5392</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>44828</t>
+          <t>21538</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>4545</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>51693</t>
+          <t>13976</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>5042</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>53656</t>
+          <t>11960</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>5240</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>93167</t>
+          <t>15232</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,240 +2603,240 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>4926</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8877</t>
+          <t>15112</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5371</t>
+          <t>4938</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>27895</t>
+          <t>17132</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>46689</t>
+          <t>31018</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>33682</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Rename</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5893</t>
+          <t>3873</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8310</t>
+          <t>12260</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5441</t>
+          <t>5219</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>17194</t>
+          <t>51526</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>3096</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>18481</t>
+          <t>40758</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>3545</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>25597</t>
+          <t>93490</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4185</t>
+          <t>2121</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>28006</t>
+          <t>57695</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>29689</t>
+          <t>48591</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>29381</t>
+          <t>75014</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>2459</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30104</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Rename</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>6055</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>33347</t>
+          <t>63090</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>33602</t>
+          <t>44682</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>34157</t>
+          <t>39181</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>33923</t>
+          <t>20050</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3787</t>
+          <t>4614</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>34892</t>
+          <t>26837</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>37610</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3623</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>37811</t>
+          <t>18919</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3615</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>43346</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3384</t>
+          <t>4038</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>44562</t>
+          <t>53460</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>44744</t>
+          <t>7503</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>5710</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>44779</t>
+          <t>28150</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>44808</t>
+          <t>38060</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3670</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>47555</t>
+          <t>57118</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>51904</t>
+          <t>29363</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>52270</t>
+          <t>37595</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>3693</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>55394</t>
+          <t>30760</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>56337</t>
+          <t>34858</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>3825</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>57764</t>
+          <t>59052</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>58169</t>
+          <t>54842</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>60101</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>3810</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>60801</t>
+          <t>46065</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>62124</t>
+          <t>35915</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>64913</t>
+          <t>53368</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>73926</t>
+          <t>34606</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>83910</t>
+          <t>58358</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,213 +3602,213 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>58805</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>31906</t>
+          <t>44569</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>54150</t>
+          <t>32416</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>43125</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>6886</t>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>85321</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>6041</t>
+          <t>2247</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6734</t>
+          <t>60972</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>5662</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6776</t>
+          <t>64818</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Player-58340439</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>10257</t>
+          <t>5822</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>6015</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>51302</t>
+          <t>70042</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>58825</t>
+          <t>58437</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57038133</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Player-57038133</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>61027</t>
+          <t>64031</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>2657</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>64722</t>
+          <t>31493</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>68732</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>41463618</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>qi ye</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>73182</t>
+          <t>52742</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2476</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>87954</t>
+          <t>56128</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>90168</t>
+          <t>62067</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58463042</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DiamondSloth80</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>93985</t>
+          <t>73051</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>104007</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4095,17 +4095,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>108806</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1772</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>109026</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58537218</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"BRAWL TALK"</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>114029</t>
+          <t>91159</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>2164</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>115990</t>
+          <t>89342</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>2190</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>118592</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>127329</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4257,17 +4257,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>130556</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>144809</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1648</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>146394</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>154771</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1685</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>157228</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,24 +4385,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>169813</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>58494374</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kirinfire</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,14 +4412,14 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1639</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>190237</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4446,17 +4446,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>197953</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,24 +4466,24 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1259</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,24 +4493,24 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1781</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4520,51 +4520,51 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1346</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>51858</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58584744</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>ronaldo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>1198</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>10575</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,24 +4574,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>9327</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4601,24 +4601,24 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5321</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>57119</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4628,24 +4628,24 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4655,24 +4655,24 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6220</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4689,17 +4689,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57473</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4709,14 +4709,14 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2853</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4737,6 +4737,33 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>52177</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>41848598</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国家一级保护沙雕</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>3065</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Rename</t>
+          <t>Disparaître</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Player-58340439</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,17 +1746,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>54618</t>
+          <t>7268</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>48293354</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"Goodbye ‏ᴠᴇᴄ"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>4826</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>44737</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>39287605</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"VEC milespapa"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3380</t>
+          <t>5499</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>27658</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>24262874</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Dogeball</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>5449</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>2373</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>6179013</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"ｍｒ.  ｓｔｉｇｍａｔｉｚｅｄ"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5784</t>
+          <t>5377</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>21025</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>32004387</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>Crickrat2357</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>5370</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19494</t>
+          <t>2866</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>1803405</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Smiler ᵛᵉᶜ"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>5301</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10360</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>42396645</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Fran64 ∆π"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5216</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17129</t>
+          <t>3772</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>48929103</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>Monkeyᵛᵉᶜ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>5180</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11028</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>41975808</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>5116</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7359</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>38465364</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>Rocking-RobinVEC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5735</t>
+          <t>5098</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7428</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>51180802</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"Go Noles VEC"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>5072</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>32761</t>
+          <t>5297</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>32330920</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"Los Lobos ᴹʸᴬ"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>5020</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>42232</t>
+          <t>5364</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>29562912</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"RockingRobin VEC"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>5013</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10959</t>
+          <t>6393</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>31206030</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"VEC Jenny"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>4913</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17046</t>
+          <t>6615</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>30801950</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>"Hobbes VEC"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4787</t>
+          <t>4891</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>6778</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>46690829</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>macPSU</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5795</t>
+          <t>4873</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>7574</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>2429559</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"Torgon ɔǝʌ"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4799</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21345</t>
+          <t>7606</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>49819488</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Myst</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>4795</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22823</t>
+          <t>7884</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>32536732</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"its iggy"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>4769</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>25043</t>
+          <t>8115</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>51279372</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"PeZxH4 ＶＥＣ"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>4745</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5950</t>
+          <t>8175</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>8686641</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>"NIKĀ IS BACK ″"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>4739</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>19776</t>
+          <t>8319</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4831713</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"RAJA N"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4628</t>
+          <t>4727</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22387</t>
+          <t>8364</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>47490553</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"VEC SneakySnake"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>4723</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>31645</t>
+          <t>8378</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>2917344</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Forrest Hump34"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3959</t>
+          <t>4722</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>13559</t>
+          <t>8430</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>47933909</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>AllahsMineswpⱤØ₣</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>4717</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7178</t>
+          <t>8620</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>46956348</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>rckaiser</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5763</t>
+          <t>4703</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>38496</t>
+          <t>8811</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>33592072</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>"VEC Y"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>4688</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10090</t>
+          <t>8808</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>55119285</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>Chi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>4688</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>21538</t>
+          <t>9090</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>21518036</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"El Que ɔǝʌ"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>4663</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>13976</t>
+          <t>9138</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>40926559</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"Mark ᵛᵉᶜ"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5042</t>
+          <t>4659</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>11960</t>
+          <t>9282</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>38934511</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"DetroitKid33 ᵥₑc"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>4647</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>15232</t>
+          <t>10206</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>49036101</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Ace Minaka"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>4579</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>15112</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>40995501</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>Confirm</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>4569</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>17132</t>
+          <t>10356</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>48569177</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>Tardnugget</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>31018</t>
+          <t>10470</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>20724497</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"Keith Klein"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4558</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>33682</t>
+          <t>11387</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>9455119</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Randy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>12260</t>
+          <t>12003</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>45989212</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>xEvan</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>4452</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>51526</t>
+          <t>13922</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>7443176</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>AloNio42</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>4322</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>40758</t>
+          <t>14043</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>23930021</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Scrubber</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3545</t>
+          <t>4314</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>93490</t>
+          <t>14093</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>52401413</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>"VEC HAKUREI"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,105 +2819,105 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>4310</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>57695</t>
+          <t>23436</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>47156718</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>OoOoO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>3828</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>48591</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>3747329</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Fix the game"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>75014</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>31275569</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Grim_</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>57695</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Disparaître</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>6055</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>63090</t>
+          <t>48591</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>44682</t>
+          <t>75014</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>2459</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>39181</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Disparaître</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>6055</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20050</t>
+          <t>63090</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>26837</t>
+          <t>44682</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>39181</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>18919</t>
+          <t>20050</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>4614</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29874</t>
+          <t>26837</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>53460</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7503</t>
+          <t>18919</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>28150</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>4038</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>38060</t>
+          <t>53460</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>57118</t>
+          <t>7503</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>5710</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>29363</t>
+          <t>28150</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37595</t>
+          <t>38060</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>3670</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30760</t>
+          <t>57118</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>34858</t>
+          <t>29363</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>59052</t>
+          <t>37595</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>3693</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>54842</t>
+          <t>30760</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>34858</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>3825</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>46065</t>
+          <t>59052</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>35915</t>
+          <t>54842</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>53368</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3810</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>34606</t>
+          <t>46065</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>58358</t>
+          <t>35915</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>53368</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>44569</t>
+          <t>34606</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>32416</t>
+          <t>58358</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>43125</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>85321</t>
+          <t>44569</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2247</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>60972</t>
+          <t>32416</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>64818</t>
+          <t>43125</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,105 +3791,105 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>85321</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>6015</t>
+          <t>2247</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>70042</t>
+          <t>60972</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>41463618</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>qi ye</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>58437</t>
+          <t>64818</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>64031</t>
+          <t>5822</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2657</t>
+          <t>6015</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>31493</t>
+          <t>70042</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58437</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>52742</t>
+          <t>64031</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>2657</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>56128</t>
+          <t>31493</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>62067</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>73051</t>
+          <t>52742</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56128</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62067</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73051</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>91159</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2164</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>89342</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91159</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>2164</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89342</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>2190</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1531</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1648</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>58479166</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ريانRedSomebody264</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1685</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>58494374</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Kirinfire</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1639</t>
         </is>
       </c>
     </row>
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58479166</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>ريانRedSomebody264</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>58584744</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ronaldo</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4547,34 +4547,34 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1259</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>10575</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>1781</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1346</t>
         </is>
       </c>
     </row>
@@ -4613,39 +4613,39 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>58584744</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>ronaldo</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1198</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>10575</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4689,17 +4689,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>57473</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4709,24 +4709,24 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4736,32 +4736,113 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6220</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>57473</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2853</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
           <t>52177</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>41848598</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>国家一级保护沙雕</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>3065</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,17 +1746,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7268</t>
+          <t>54618</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>48293354</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Goodbye ‏ᴠᴇᴄ"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>44737</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>39287605</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"VEC milespapa"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5499</t>
+          <t>3380</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>27658</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>24262874</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dogeball</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5449</t>
+          <t>4150</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2373</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6179013</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"ｍｒ.  ｓｔｉｇｍａｔｉｚｅｄ"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5377</t>
+          <t>5784</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>21025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32004387</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Crickrat2357</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5370</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>19494</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1803405</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Smiler ᵛᵉᶜ"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5301</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>10360</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>42396645</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Fran64 ∆π"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>5366</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3772</t>
+          <t>17129</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>48929103</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Monkeyᵛᵉᶜ</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>11028</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>41975808</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5116</t>
+          <t>5311</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>7359</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38465364</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rocking-RobinVEC</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5098</t>
+          <t>5735</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>7428</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>51180802</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Go Noles VEC"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5072</t>
+          <t>5722</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5297</t>
+          <t>32761</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>32330920</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Los Lobos ᴹʸᴬ"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>3910</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5364</t>
+          <t>42232</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>29562912</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"RockingRobin VEC"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>3481</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6393</t>
+          <t>10959</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>31206030</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"VEC Jenny"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4913</t>
+          <t>5316</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>17046</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>30801950</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Hobbes VEC"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4891</t>
+          <t>4787</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6778</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>46690829</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>macPSU</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>5795</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7574</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2429559</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Torgon ɔǝʌ"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>4666</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7606</t>
+          <t>21345</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>49819488</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Myst</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7884</t>
+          <t>22823</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>32536732</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"its iggy"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>4475</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8115</t>
+          <t>25043</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>51279372</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"PeZxH4 ＶＥＣ"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>4311</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8175</t>
+          <t>5950</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8686641</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"NIKĀ IS BACK ″"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>6001</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8319</t>
+          <t>19776</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4831713</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"RAJA N"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4727</t>
+          <t>4628</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8364</t>
+          <t>22387</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>47490553</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"VEC SneakySnake"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>8378</t>
+          <t>31645</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2917344</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Forrest Hump34"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4722</t>
+          <t>3959</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8430</t>
+          <t>13559</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>47933909</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AllahsMineswpⱤØ₣</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4717</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>8620</t>
+          <t>7178</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>46956348</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>rckaiser</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4703</t>
+          <t>5763</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8811</t>
+          <t>38496</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>33592072</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"VEC Y"</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8808</t>
+          <t>10090</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>55119285</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Chi</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>5392</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9090</t>
+          <t>21538</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21518036</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"El Que ɔǝʌ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>4545</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9138</t>
+          <t>13976</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>40926559</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Mark ᵛᵉᶜ"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>5042</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9282</t>
+          <t>11960</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>38934511</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"DetroitKid33 ᵥₑc"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>5240</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>10206</t>
+          <t>15232</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>49036101</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Ace Minaka"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4926</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>10329</t>
+          <t>15112</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>40995501</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Confirm</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4569</t>
+          <t>4938</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10356</t>
+          <t>17132</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>48569177</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tardnugget</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10470</t>
+          <t>31018</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20724497</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Keith Klein"</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4558</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>11387</t>
+          <t>33682</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9455119</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Randy</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>3873</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>12003</t>
+          <t>12260</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>45989212</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>xEvan</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>5219</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>13922</t>
+          <t>51526</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7443176</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AloNio42</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4322</t>
+          <t>3096</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>14043</t>
+          <t>40758</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>23930021</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Scrubber</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>3545</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>14093</t>
+          <t>93490</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>52401413</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"VEC HAKUREI"</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,105 +2819,105 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>2121</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>23436</t>
+          <t>57695</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>47156718</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>OoOoO</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48591</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3747329</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Fix the game"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>75014</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>31275569</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Grim_</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2459</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>57695</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Disparaître</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>6055</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>48591</t>
+          <t>63090</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>75014</t>
+          <t>44682</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>39181</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Disparaître</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6055</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>63090</t>
+          <t>20050</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>4614</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>44682</t>
+          <t>26837</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>39181</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20050</t>
+          <t>18919</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>26837</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4038</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>53460</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>18919</t>
+          <t>7503</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>5710</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>29874</t>
+          <t>28150</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>53460</t>
+          <t>38060</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>3670</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7503</t>
+          <t>57118</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>28150</t>
+          <t>29363</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>38060</t>
+          <t>37595</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>3693</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>57118</t>
+          <t>30760</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>29363</t>
+          <t>34858</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>3825</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>37595</t>
+          <t>59052</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30760</t>
+          <t>54842</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>34858</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>3810</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>59052</t>
+          <t>46065</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>54842</t>
+          <t>35915</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>53368</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>46065</t>
+          <t>34606</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>35915</t>
+          <t>58358</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>53368</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>34606</t>
+          <t>44569</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>58358</t>
+          <t>32416</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>43125</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>44569</t>
+          <t>85321</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>2247</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>32416</t>
+          <t>60972</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>43125</t>
+          <t>64818</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,105 +3791,105 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>85321</t>
+          <t>5822</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2247</t>
+          <t>6015</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>60972</t>
+          <t>70042</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>64818</t>
+          <t>58437</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>64031</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>6015</t>
+          <t>2657</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>70042</t>
+          <t>31493</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>41463618</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>qi ye</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>58437</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>64031</t>
+          <t>52742</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2657</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>31493</t>
+          <t>56128</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62067</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>52742</t>
+          <t>73051</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>56128</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>62067</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>73051</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91159</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>2164</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89342</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2190</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>91159</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2164</t>
+          <t>1531</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>89342</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1648</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1685</t>
         </is>
       </c>
     </row>
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1639</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>58479166</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>ريانRedSomebody264</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1259</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1781</t>
         </is>
       </c>
     </row>
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>58479166</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ريانRedSomebody264</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1346</t>
         </is>
       </c>
     </row>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>58494374</t>
+          <t>58584744</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Kirinfire</t>
+          <t>ronaldo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4547,34 +4547,34 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1198</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10575</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4613,39 +4613,39 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>58584744</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ronaldo</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>10575</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6220</t>
         </is>
       </c>
     </row>
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4689,17 +4689,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57473</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4709,24 +4709,24 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2853</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4736,24 +4736,24 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52177</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4762,87 +4762,6 @@
         </is>
       </c>
       <c r="E163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>57473</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2853</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>52177</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>41848598</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>国家一级保护沙雕</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
         <is>
           <t>3065</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20274</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36417892</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>"VEC Para Bellum"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4604</t>
+          <t>6263</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>8737186</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"Lukas      vec"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6101</t>
+          <t>6791</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>2217</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>31910959</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>VEC◇BONKERS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6583</t>
+          <t>6725</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3334</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>11935881</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>ODKRO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6666</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>41975808</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6320</t>
+          <t>6596</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7369</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>2128417</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Jungle</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5732</t>
+          <t>6531</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>9716</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>55822728</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"VEC Lil Bonkers"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6111</t>
+          <t>5777</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41011</t>
+          <t>12056</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6016757</t>
+          <t>44358234</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Xx邪罗罗xX</t>
+          <t>"⚔️⛨ Nots 2 ᵛᵉᶜ"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>5591</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>16014</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>51221321</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>pocket</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5286</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>19870</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>36081694</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"⚔️Nots Pickle"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>5062</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>41582471</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>HAWK</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6158</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>54417</t>
+          <t>8398</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>28106548</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>V.A.A.S.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>5889</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>15184</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>26306753</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"Ky DAD Vec"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>5337</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4899</t>
+          <t>15216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>28910224</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"CooKI ᵛᵉᶜ"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6108</t>
+          <t>5335</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>16576</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>20718434</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>3von.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6840</t>
+          <t>5251</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8012</t>
+          <t>17708</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>10605547</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>Siebu</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>5181</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>18119</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>53985519</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"inky33 VEC"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6351</t>
+          <t>5156</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>19657</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>46233038</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>Arumonk</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7137</t>
+          <t>5074</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6531</t>
+          <t>19701</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>17862851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"Sam Vimes"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5881</t>
+          <t>5071</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>20169</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>8560877</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>VECBeerdsman</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6525</t>
+          <t>5044</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4191</t>
+          <t>22691</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>50248005</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>Zyvis</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>4906</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6768</t>
+          <t>23530</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>10383351</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>SirScottsalot</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5834</t>
+          <t>4860</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72376</t>
+          <t>23819</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>50990927</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4842</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>26968</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>57009371</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>:Zam:</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6268</t>
+          <t>4684</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2430</t>
+          <t>27392</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>57874742</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>BmorelkmeAlt</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6492</t>
+          <t>4665</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>29119</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>707187</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"Pacem ᵛᵉᶜ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6426</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>31456</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>43626377</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
+          <t>"The Kurgan VEC"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6924</t>
+          <t>4495</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>30749</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>36042504</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>"Daveypb24 ⱽᵉᶜ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>4522</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2994</t>
+          <t>32942</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>52574194</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>whyme</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>4426</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>33431</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>58274638</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>"Slash Ϟ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>4403</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38845</t>
+          <t>35525</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>54791976</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>Rajman</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>4304</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>38004</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>57252217</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>DaJenius</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6623</t>
+          <t>4186</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7894</t>
+          <t>40136</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>54049077</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Wiedźmin</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>4076</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12555</t>
+          <t>41889</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>41227593</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"Arly Cleve OH-D"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>55810</t>
+          <t>51470</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>30129740</t>
+          <t>58192944</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JohnyWS</t>
+          <t>ScottieV༙྇e༙྇c༙྇</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>3051</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>51052414</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>Higoramp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6198</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7608</t>
+          <t>24891</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>46302201</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>Matty</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>4785</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>27033</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>55603449</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>GameofThrones</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7164</t>
+          <t>4681</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>29045</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>24665950</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>Triple-R</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6157</t>
+          <t>4595</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>29187</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>46477117</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Mama šč ⱽᵉᶜ"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7138</t>
+          <t>4589</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5754</t>
+          <t>34063</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>34100839</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>nti3nn.xzyc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>4373</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>49144</t>
+          <t>40206</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>35384730</t>
+          <t>57582503</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"king of war £"</t>
+          <t>Revolutionize</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>4072</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6894</t>
+          <t>50594</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>56139551</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>madani911</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5813</t>
+          <t>3113</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>51090</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>58404624</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>Skyler</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6207</t>
+          <t>3076</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10530</t>
+          <t>57835</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>54958241</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>clgray1976</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5351</t>
+          <t>2764</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>76711</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>59259842</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6366</t>
+          <t>2258</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>82976</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>57931192</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>Killua</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6152</t>
+          <t>2088</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>120077</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>4998335</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>AHA...</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,78 +1685,78 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6046</t>
+          <t>1317</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18691</t>
+          <t>54618</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>54189845</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"going down ®"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44737</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>57484853</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"vector to islam"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>3380</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>54618</t>
+          <t>27658</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>4150</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>44737</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3380</t>
+          <t>5784</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>27658</t>
+          <t>21025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>19494</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5784</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>21025</t>
+          <t>10360</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>5366</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19494</t>
+          <t>17129</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10360</t>
+          <t>11028</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5311</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17129</t>
+          <t>7359</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>5735</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11028</t>
+          <t>7428</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>5722</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7359</t>
+          <t>32761</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5735</t>
+          <t>3910</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7428</t>
+          <t>42232</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>3481</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>32761</t>
+          <t>10959</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>5316</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>42232</t>
+          <t>17046</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>4787</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10959</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>5795</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17046</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4787</t>
+          <t>4666</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>21345</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5795</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>22823</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4475</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21345</t>
+          <t>25043</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>4311</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22823</t>
+          <t>5950</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>6001</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>25043</t>
+          <t>19776</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>4628</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5950</t>
+          <t>22387</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>19776</t>
+          <t>31645</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4628</t>
+          <t>3959</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22387</t>
+          <t>13559</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>31645</t>
+          <t>7178</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3959</t>
+          <t>5763</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>13559</t>
+          <t>38496</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7178</t>
+          <t>10090</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5763</t>
+          <t>5392</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>38496</t>
+          <t>21538</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>4545</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10090</t>
+          <t>13976</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>5042</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>21538</t>
+          <t>11960</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>5240</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>13976</t>
+          <t>15232</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5042</t>
+          <t>4926</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>11960</t>
+          <t>15112</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>4938</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>15232</t>
+          <t>17132</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>15112</t>
+          <t>31018</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>17132</t>
+          <t>33682</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>3873</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>31018</t>
+          <t>12260</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>5219</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>33682</t>
+          <t>51526</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>3096</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>12260</t>
+          <t>40758</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>3545</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>51526</t>
+          <t>93490</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,78 +2765,78 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>2121</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>40758</t>
+          <t>57695</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3545</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>93490</t>
+          <t>48591</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>57695</t>
+          <t>75014</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2459</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>48591</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Disparaître</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>6055</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>75014</t>
+          <t>63090</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>44682</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Disparaître</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>6055</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>63090</t>
+          <t>39181</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>44682</t>
+          <t>20050</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>4614</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>39181</t>
+          <t>26837</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20050</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>26837</t>
+          <t>18919</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4038</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>18919</t>
+          <t>53460</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29874</t>
+          <t>7503</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>5710</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>53460</t>
+          <t>28150</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7503</t>
+          <t>38060</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>3670</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>28150</t>
+          <t>57118</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>38060</t>
+          <t>29363</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>57118</t>
+          <t>37595</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>3693</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>29363</t>
+          <t>30760</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37595</t>
+          <t>34858</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>3825</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30760</t>
+          <t>59052</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>34858</t>
+          <t>54842</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>59052</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>3810</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>54842</t>
+          <t>46065</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>35915</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>46065</t>
+          <t>53368</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>35915</t>
+          <t>34606</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>53368</t>
+          <t>58358</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>34606</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>58358</t>
+          <t>44569</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>32416</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>44569</t>
+          <t>43125</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>32416</t>
+          <t>85321</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>2247</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>43125</t>
+          <t>60972</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>85321</t>
+          <t>64818</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,78 +3737,78 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2247</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>60972</t>
+          <t>5822</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>6015</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>64818</t>
+          <t>70042</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>58437</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>6015</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>70042</t>
+          <t>64031</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>41463618</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>qi ye</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2657</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>58437</t>
+          <t>31493</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>64031</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2657</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>31493</t>
+          <t>52742</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56128</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>52742</t>
+          <t>62067</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>56128</t>
+          <t>73051</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>62067</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>73051</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4073,12 +4073,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91159</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2164</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89342</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>2190</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>91159</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2164</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>89342</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>1531</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1648</t>
         </is>
       </c>
     </row>
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1685</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1639</t>
         </is>
       </c>
     </row>
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58479166</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>ريانRedSomebody264</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1259</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>58479166</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ريانRedSomebody264</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1781</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>58494374</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Kirinfire</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1346</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>58584744</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>ronaldo</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,34 +4493,34 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1198</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10575</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
@@ -4532,39 +4532,39 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>58584744</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ronaldo</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>10575</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,24 +4574,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6220</t>
         </is>
       </c>
     </row>
@@ -4613,12 +4613,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4635,17 +4635,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>57473</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>2853</t>
         </is>
       </c>
     </row>
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4689,17 +4689,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>57473</t>
+          <t>52177</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4708,60 +4708,6 @@
         </is>
       </c>
       <c r="E161" t="inlineStr">
-        <is>
-          <t>2853</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>52177</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>41848598</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>国家一级保护沙雕</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
         <is>
           <t>3065</t>
         </is>

--- a/Season_Trophies/81.xlsx
+++ b/Season_Trophies/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>20274</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36417892</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"VEC Para Bellum"</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6263</t>
+          <t>4604</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>4979</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8737186</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Lukas      vec"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6791</t>
+          <t>6101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2217</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31910959</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VEC◇BONKERS</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6725</t>
+          <t>6583</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11935881</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ODKRO</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>6330</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>41975808</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6596</t>
+          <t>6320</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>7369</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2128417</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jungle</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6531</t>
+          <t>5732</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9716</t>
+          <t>4868</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55822728</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"VEC Lil Bonkers"</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5777</t>
+          <t>6111</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12056</t>
+          <t>41011</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>44358234</t>
+          <t>6016757</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"⚔️⛨ Nots 2 ᵛᵉᶜ"</t>
+          <t>Xx邪罗罗xX</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5591</t>
+          <t>3534</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>7349</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>51221321</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pocket</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5286</t>
+          <t>5738</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19870</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>36081694</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"⚔️Nots Pickle"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5062</t>
+          <t>7186</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5789</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41582471</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HAWK</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6158</t>
+          <t>6075</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8398</t>
+          <t>54417</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28106548</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>V.A.A.S.</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5889</t>
+          <t>2970</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15184</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26306753</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Ky DAD Vec"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5337</t>
+          <t>7281</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15216</t>
+          <t>4899</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>28910224</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"CooKI ᵛᵉᶜ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>6108</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16576</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20718434</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3von.</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17708</t>
+          <t>8012</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10605547</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Siebu</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5181</t>
+          <t>5630</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18119</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53985519</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"inky33 VEC"</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>6351</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19657</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>46233038</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Arumonk</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>7137</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19701</t>
+          <t>6531</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17862851</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Sam Vimes"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5071</t>
+          <t>5881</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20169</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8560877</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VECBeerdsman</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>6525</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22691</t>
+          <t>4191</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>50248005</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Zyvis</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4906</t>
+          <t>6196</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23530</t>
+          <t>6768</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10383351</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SirScottsalot</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4860</t>
+          <t>5834</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23819</t>
+          <t>72376</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>50990927</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4842</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26968</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>57009371</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>:Zam:</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>6268</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27392</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>57874742</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BmorelkmeAlt</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>6492</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>29119</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>707187</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Pacem ᵛᵉᶜ"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>6426</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>31456</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>43626377</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"The Kurgan VEC"</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4495</t>
+          <t>6924</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30749</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>36042504</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Daveypb24 ⱽᵉᶜ"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>6182</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>32942</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>52574194</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>whyme</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>6388</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>33431</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>58274638</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Slash Ϟ"</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4403</t>
+          <t>7167</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>35525</t>
+          <t>38845</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>54791976</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rajman</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4304</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38004</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>57252217</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DaJenius</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4186</t>
+          <t>6623</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>40136</t>
+          <t>7894</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>54049077</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wiedźmin</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>5648</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>41889</t>
+          <t>12555</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>41227593</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Arly Cleve OH-D"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>5194</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>51470</t>
+          <t>55810</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>58192944</t>
+          <t>30129740</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ScottieV༙྇e༙྇c༙྇</t>
+          <t>JohnyWS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>2915</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>51052414</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Higoramp</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6198</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>24891</t>
+          <t>7608</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>46302201</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Matty</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4785</t>
+          <t>5695</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>27033</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>55603449</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GameofThrones</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>7164</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>29045</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>24665950</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Triple-R</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>6157</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>29187</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>46477117</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Mama šč ⱽᵉᶜ"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>7138</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>34063</t>
+          <t>5754</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>34100839</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>nti3nn.xzyc</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6021</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40206</t>
+          <t>49144</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>57582503</t>
+          <t>35384730</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Revolutionize</t>
+          <t>"king of war £"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>3205</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>50594</t>
+          <t>6894</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56139551</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>madani911</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>5813</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>51090</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58404624</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Skyler</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>6207</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>57835</t>
+          <t>10530</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>54958241</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>clgray1976</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>5351</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>76711</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>59259842</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>6366</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>82976</t>
+          <t>4509</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>57931192</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Killua</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>6152</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>120077</t>
+          <t>5504</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4998335</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AHA...</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,78 +1685,78 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>6046</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>54618</t>
+          <t>18691</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>54189845</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"going down ®"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>4684</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>44737</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57484853</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"vector to islam"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3380</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>27658</t>
+          <t>54618</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>44737</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5784</t>
+          <t>3380</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21025</t>
+          <t>27658</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>4150</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19494</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>5784</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10360</t>
+          <t>21025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>17129</t>
+          <t>19494</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11028</t>
+          <t>10360</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>5366</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7359</t>
+          <t>17129</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5735</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7428</t>
+          <t>11028</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>5311</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>32761</t>
+          <t>7359</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>5735</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>42232</t>
+          <t>7428</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>5722</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10959</t>
+          <t>32761</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>3910</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>17046</t>
+          <t>42232</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4787</t>
+          <t>3481</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>10959</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5795</t>
+          <t>5316</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>17046</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4787</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21345</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>5795</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22823</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>4666</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>25043</t>
+          <t>21345</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5950</t>
+          <t>22823</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>4475</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19776</t>
+          <t>25043</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4628</t>
+          <t>4311</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>22387</t>
+          <t>5950</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>6001</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>31645</t>
+          <t>19776</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3959</t>
+          <t>4628</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>13559</t>
+          <t>22387</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7178</t>
+          <t>31645</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5763</t>
+          <t>3959</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>38496</t>
+          <t>13559</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10090</t>
+          <t>7178</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>5763</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>21538</t>
+          <t>38496</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>13976</t>
+          <t>10090</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5042</t>
+          <t>5392</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>11960</t>
+          <t>21538</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>4545</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>15232</t>
+          <t>13976</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>5042</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>15112</t>
+          <t>11960</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>5240</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>17132</t>
+          <t>15232</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4926</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>31018</t>
+          <t>15112</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4938</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>33682</t>
+          <t>17132</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>12260</t>
+          <t>31018</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>51526</t>
+          <t>33682</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>3873</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>40758</t>
+          <t>12260</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3545</t>
+          <t>5219</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>93490</t>
+          <t>51526</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,78 +2765,78 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>3096</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>57695</t>
+          <t>40758</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>3545</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>48591</t>
+          <t>93490</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>2121</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>75014</t>
+          <t>57695</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>48591</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7857221</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Disparaître</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6055</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>63090</t>
+          <t>75014</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>2459</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>44682</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>7857221</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Disparaître</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>6055</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>39181</t>
+          <t>63090</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20050</t>
+          <t>44682</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>26837</t>
+          <t>39181</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>20050</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4614</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>18919</t>
+          <t>26837</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>29874</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>53460</t>
+          <t>18919</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7503</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>4038</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>28150</t>
+          <t>53460</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>38060</t>
+          <t>7503</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>5710</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>57118</t>
+          <t>28150</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>29363</t>
+          <t>38060</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>3670</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>37595</t>
+          <t>57118</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30760</t>
+          <t>29363</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>34858</t>
+          <t>37595</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>51841127</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Muhammad Shox"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>3693</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>59052</t>
+          <t>30760</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>54842</t>
+          <t>34858</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>51841127</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"Muhammad Shox"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>3825</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>59052</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>46065</t>
+          <t>54842</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>35915</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>3810</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>53368</t>
+          <t>46065</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>34606</t>
+          <t>35915</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>58358</t>
+          <t>53368</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>34606</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>44569</t>
+          <t>58358</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>32416</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>43125</t>
+          <t>44569</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>85321</t>
+          <t>32416</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2247</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>60972</t>
+          <t>43125</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>64818</t>
+          <t>85321</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,78 +3737,78 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2247</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>60972</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>6015</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>70042</t>
+          <t>64818</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>41463618</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>qi ye</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>58437</t>
+          <t>5822</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>6015</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>64031</t>
+          <t>70042</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>41463618</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>qi ye</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2657</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>31493</t>
+          <t>58437</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64031</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2657</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>52742</t>
+          <t>31493</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>56128</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>62067</t>
+          <t>52742</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>73051</t>
+          <t>56128</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62067</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73051</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"king 1"</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
@@ -4073,12 +4073,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>91159</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>"king 1"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2164</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>89342</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91159</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>57908454</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-57908454</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>2164</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89342</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>2190</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58368224</t>
+          <t>57908454</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>战争雷霆杯</t>
+          <t>Player-57908454</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58380905</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-58380905</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1531</t>
         </is>
       </c>
     </row>
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58386875</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ExquisiteAgreement33</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58415620</t>
+          <t>58380905</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"el pepe"</t>
+          <t>Player-58380905</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1648</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58425274</t>
+          <t>58386875</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Player-58425274</t>
+          <t>ExquisiteAgreement33</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58437456</t>
+          <t>58415620</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>中国人不骗中国人</t>
+          <t>"el pepe"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1685</t>
         </is>
       </c>
     </row>
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58479166</t>
+          <t>58425274</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ريانRedSomebody264</t>
+          <t>Player-58425274</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>58494374</t>
+          <t>58437456</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kirinfire</t>
+          <t>中国人不骗中国人</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1639</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>58526469</t>
+          <t>58479166</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ItaloFlausino</t>
+          <t>ريانRedSomebody264</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58494374</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Kirinfire</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1259</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>58584744</t>
+          <t>58526469</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ronaldo</t>
+          <t>ItaloFlausino</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,34 +4493,34 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1781</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>10575</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>1346</t>
         </is>
       </c>
     </row>
@@ -4532,39 +4532,39 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>58584744</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>ronaldo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1198</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10575</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,24 +4574,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4613,12 +4613,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4635,17 +4635,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>57473</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>6220</t>
         </is>
       </c>
     </row>
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4689,25 +4689,79 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>57473</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2853</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>52177</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>41848598</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>国家一级保护沙雕</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>3065</t>
         </is>
